--- a/template/product3all.xlsx
+++ b/template/product3all.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\home\soft\git\highablePrint\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703A75F5-1FF6-49CF-888B-B02690A16F07}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755F3231-8ECE-4CC8-BD5A-A376BB157DCC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29205" windowHeight="16635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1425" yWindow="1425" windowWidth="25425" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="制单" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>制单</t>
   </si>
@@ -112,19 +112,7 @@
     <t>一.主唛/烟治唛/产地唛车法：</t>
   </si>
   <si>
-    <t>主唛：</t>
-  </si>
-  <si>
-    <t>产地唛：</t>
-  </si>
-  <si>
     <t>二.洗水唛位置</t>
-  </si>
-  <si>
-    <t>洗水唛：</t>
-  </si>
-  <si>
-    <t>烟治：</t>
   </si>
   <si>
     <t>三.挂牌位置</t>
@@ -162,6 +150,14 @@
   </si>
   <si>
     <t>布料/辅料应用表</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>A點：</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>B點：</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
@@ -1145,106 +1141,27 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1259,37 +1176,106 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1307,10 +1293,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1327,6 +1323,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1340,56 +1366,26 @@
     <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2674,106 +2670,106 @@
       <c r="A3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="209"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
       <c r="E3" s="57" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="57"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
       <c r="J3" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="167"/>
-      <c r="M3" s="167"/>
+      <c r="L3" s="187"/>
+      <c r="M3" s="187"/>
       <c r="N3" s="57"/>
-      <c r="O3" s="143"/>
-      <c r="P3" s="168"/>
-      <c r="Q3" s="168"/>
-      <c r="R3" s="168"/>
+      <c r="O3" s="148"/>
+      <c r="P3" s="174"/>
+      <c r="Q3" s="174"/>
+      <c r="R3" s="174"/>
     </row>
     <row r="4" spans="1:18" ht="21.75" thickBot="1">
-      <c r="A4" s="169" t="s">
+      <c r="A4" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="170"/>
-      <c r="C4" s="170"/>
-      <c r="D4" s="171"/>
-      <c r="E4" s="170"/>
-      <c r="F4" s="170"/>
-      <c r="G4" s="172"/>
-      <c r="H4" s="172"/>
-      <c r="I4" s="172"/>
-      <c r="J4" s="170"/>
-      <c r="K4" s="170"/>
-      <c r="L4" s="172"/>
+      <c r="B4" s="166"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="168"/>
+      <c r="H4" s="168"/>
+      <c r="I4" s="168"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="166"/>
+      <c r="L4" s="168"/>
       <c r="M4" s="26" t="s">
         <v>9</v>
       </c>
       <c r="N4" s="105"/>
-      <c r="O4" s="173"/>
-      <c r="P4" s="173"/>
-      <c r="Q4" s="174"/>
-      <c r="R4" s="175"/>
+      <c r="O4" s="169"/>
+      <c r="P4" s="169"/>
+      <c r="Q4" s="170"/>
+      <c r="R4" s="171"/>
     </row>
     <row r="5" spans="1:18" ht="19.5">
-      <c r="A5" s="178" t="s">
+      <c r="A5" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="179"/>
+      <c r="B5" s="176"/>
       <c r="C5" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="164"/>
-      <c r="E5" s="164"/>
-      <c r="F5" s="164"/>
-      <c r="G5" s="164"/>
-      <c r="H5" s="164"/>
-      <c r="I5" s="164"/>
-      <c r="J5" s="164"/>
-      <c r="K5" s="164"/>
-      <c r="L5" s="159" t="s">
+      <c r="D5" s="177"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="177"/>
+      <c r="G5" s="177"/>
+      <c r="H5" s="177"/>
+      <c r="I5" s="177"/>
+      <c r="J5" s="177"/>
+      <c r="K5" s="177"/>
+      <c r="L5" s="130" t="s">
         <v>12</v>
       </c>
       <c r="M5" s="26" t="s">
         <v>13</v>
       </c>
       <c r="N5" s="106"/>
-      <c r="O5" s="161"/>
-      <c r="P5" s="161"/>
-      <c r="Q5" s="176"/>
-      <c r="R5" s="177"/>
+      <c r="O5" s="118"/>
+      <c r="P5" s="118"/>
+      <c r="Q5" s="172"/>
+      <c r="R5" s="173"/>
     </row>
     <row r="6" spans="1:18" ht="18" thickBot="1">
-      <c r="A6" s="140" t="s">
+      <c r="A6" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="156"/>
+      <c r="B6" s="120"/>
       <c r="C6" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="165"/>
-      <c r="E6" s="165"/>
-      <c r="F6" s="165"/>
-      <c r="G6" s="165"/>
-      <c r="H6" s="165"/>
-      <c r="I6" s="165"/>
-      <c r="J6" s="165"/>
-      <c r="K6" s="165"/>
-      <c r="L6" s="160"/>
-      <c r="M6" s="157"/>
-      <c r="N6" s="162"/>
-      <c r="O6" s="162"/>
-      <c r="P6" s="163"/>
-      <c r="Q6" s="176"/>
-      <c r="R6" s="177"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
+      <c r="J6" s="178"/>
+      <c r="K6" s="178"/>
+      <c r="L6" s="131"/>
+      <c r="M6" s="121"/>
+      <c r="N6" s="122"/>
+      <c r="O6" s="122"/>
+      <c r="P6" s="123"/>
+      <c r="Q6" s="172"/>
+      <c r="R6" s="173"/>
     </row>
     <row r="7" spans="1:18" ht="18.75" thickBot="1">
-      <c r="A7" s="151"/>
-      <c r="B7" s="152"/>
+      <c r="A7" s="124"/>
+      <c r="B7" s="125"/>
       <c r="C7" s="82"/>
       <c r="D7" s="83"/>
       <c r="E7" s="83"/>
@@ -2788,12 +2784,12 @@
       <c r="N7" s="72"/>
       <c r="O7" s="72"/>
       <c r="P7" s="72"/>
-      <c r="Q7" s="176"/>
-      <c r="R7" s="177"/>
+      <c r="Q7" s="172"/>
+      <c r="R7" s="173"/>
     </row>
     <row r="8" spans="1:18" ht="18.75" thickBot="1">
-      <c r="A8" s="151"/>
-      <c r="B8" s="152"/>
+      <c r="A8" s="124"/>
+      <c r="B8" s="125"/>
       <c r="C8" s="82"/>
       <c r="D8" s="83"/>
       <c r="E8" s="83"/>
@@ -2808,12 +2804,12 @@
       <c r="N8" s="72"/>
       <c r="O8" s="72"/>
       <c r="P8" s="72"/>
-      <c r="Q8" s="176"/>
-      <c r="R8" s="177"/>
+      <c r="Q8" s="172"/>
+      <c r="R8" s="173"/>
     </row>
     <row r="9" spans="1:18" ht="18.75" thickBot="1">
-      <c r="A9" s="151"/>
-      <c r="B9" s="152"/>
+      <c r="A9" s="124"/>
+      <c r="B9" s="125"/>
       <c r="C9" s="82"/>
       <c r="D9" s="83"/>
       <c r="E9" s="83"/>
@@ -2828,12 +2824,12 @@
       <c r="N9" s="72"/>
       <c r="O9" s="72"/>
       <c r="P9" s="72"/>
-      <c r="Q9" s="176"/>
-      <c r="R9" s="177"/>
+      <c r="Q9" s="172"/>
+      <c r="R9" s="173"/>
     </row>
     <row r="10" spans="1:18" ht="18.75" thickBot="1">
-      <c r="A10" s="151"/>
-      <c r="B10" s="152"/>
+      <c r="A10" s="124"/>
+      <c r="B10" s="125"/>
       <c r="C10" s="82"/>
       <c r="D10" s="83"/>
       <c r="E10" s="83"/>
@@ -2848,12 +2844,12 @@
       <c r="N10" s="72"/>
       <c r="O10" s="72"/>
       <c r="P10" s="72"/>
-      <c r="Q10" s="176"/>
-      <c r="R10" s="177"/>
+      <c r="Q10" s="172"/>
+      <c r="R10" s="173"/>
     </row>
     <row r="11" spans="1:18" ht="18.75" thickBot="1">
-      <c r="A11" s="151"/>
-      <c r="B11" s="152"/>
+      <c r="A11" s="124"/>
+      <c r="B11" s="125"/>
       <c r="C11" s="82"/>
       <c r="D11" s="83"/>
       <c r="E11" s="83"/>
@@ -2868,15 +2864,15 @@
       <c r="N11" s="72"/>
       <c r="O11" s="72"/>
       <c r="P11" s="72"/>
-      <c r="Q11" s="176"/>
-      <c r="R11" s="177"/>
+      <c r="Q11" s="172"/>
+      <c r="R11" s="173"/>
     </row>
     <row r="12" spans="1:18" ht="18">
-      <c r="A12" s="153" t="s">
+      <c r="A12" s="126" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="154"/>
-      <c r="C12" s="154"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="127"/>
       <c r="D12" s="84"/>
       <c r="E12" s="84"/>
       <c r="F12" s="84"/>
@@ -2890,34 +2886,34 @@
       <c r="N12" s="108"/>
       <c r="O12" s="108"/>
       <c r="P12" s="108"/>
-      <c r="Q12" s="176"/>
-      <c r="R12" s="177"/>
+      <c r="Q12" s="172"/>
+      <c r="R12" s="173"/>
     </row>
     <row r="13" spans="1:18" ht="18">
-      <c r="A13" s="155" t="s">
+      <c r="A13" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="154"/>
-      <c r="C13" s="154"/>
-      <c r="D13" s="154"/>
-      <c r="E13" s="154"/>
-      <c r="F13" s="154"/>
-      <c r="G13" s="154"/>
-      <c r="H13" s="154"/>
-      <c r="I13" s="154"/>
-      <c r="J13" s="154"/>
-      <c r="K13" s="156"/>
-      <c r="L13" s="154"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="127"/>
+      <c r="G13" s="127"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="127"/>
+      <c r="J13" s="127"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="127"/>
       <c r="M13" s="109"/>
       <c r="N13" s="110"/>
       <c r="O13" s="110"/>
       <c r="P13" s="110"/>
-      <c r="Q13" s="176"/>
-      <c r="R13" s="177"/>
+      <c r="Q13" s="172"/>
+      <c r="R13" s="173"/>
     </row>
     <row r="14" spans="1:18" ht="18.75" thickBot="1">
-      <c r="A14" s="157"/>
-      <c r="B14" s="158"/>
+      <c r="A14" s="121"/>
+      <c r="B14" s="129"/>
       <c r="C14" s="85"/>
       <c r="D14" s="86"/>
       <c r="E14" s="86"/>
@@ -2932,76 +2928,76 @@
       <c r="N14" s="110"/>
       <c r="O14" s="110"/>
       <c r="P14" s="110"/>
-      <c r="Q14" s="168"/>
-      <c r="R14" s="177"/>
+      <c r="Q14" s="174"/>
+      <c r="R14" s="173"/>
     </row>
     <row r="15" spans="1:18" ht="18.75" thickBot="1">
-      <c r="A15" s="136" t="s">
+      <c r="A15" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="136"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="118"/>
-      <c r="J15" s="118"/>
-      <c r="K15" s="118"/>
-      <c r="L15" s="118"/>
-      <c r="M15" s="137" t="s">
+      <c r="B15" s="142"/>
+      <c r="C15" s="156"/>
+      <c r="D15" s="158"/>
+      <c r="E15" s="156"/>
+      <c r="F15" s="157"/>
+      <c r="G15" s="157"/>
+      <c r="H15" s="157"/>
+      <c r="I15" s="157"/>
+      <c r="J15" s="157"/>
+      <c r="K15" s="157"/>
+      <c r="L15" s="157"/>
+      <c r="M15" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="N15" s="138"/>
-      <c r="O15" s="138"/>
-      <c r="P15" s="138"/>
-      <c r="Q15" s="138"/>
-      <c r="R15" s="139"/>
+      <c r="N15" s="144"/>
+      <c r="O15" s="144"/>
+      <c r="P15" s="144"/>
+      <c r="Q15" s="144"/>
+      <c r="R15" s="145"/>
     </row>
     <row r="16" spans="1:18" ht="18" thickBot="1">
-      <c r="A16" s="140" t="s">
+      <c r="A16" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="141"/>
-      <c r="C16" s="141"/>
-      <c r="D16" s="141"/>
-      <c r="E16" s="141"/>
-      <c r="F16" s="141"/>
-      <c r="G16" s="141"/>
-      <c r="H16" s="141"/>
-      <c r="I16" s="141"/>
-      <c r="J16" s="141"/>
-      <c r="K16" s="141"/>
+      <c r="B16" s="146"/>
+      <c r="C16" s="146"/>
+      <c r="D16" s="146"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="146"/>
+      <c r="I16" s="146"/>
+      <c r="J16" s="146"/>
+      <c r="K16" s="146"/>
       <c r="L16" s="101"/>
-      <c r="M16" s="142"/>
-      <c r="N16" s="143"/>
-      <c r="O16" s="143"/>
-      <c r="P16" s="143"/>
-      <c r="Q16" s="143"/>
-      <c r="R16" s="144"/>
+      <c r="M16" s="147"/>
+      <c r="N16" s="148"/>
+      <c r="O16" s="148"/>
+      <c r="P16" s="148"/>
+      <c r="Q16" s="148"/>
+      <c r="R16" s="149"/>
     </row>
     <row r="17" spans="1:18" ht="17.25">
-      <c r="A17" s="140" t="s">
+      <c r="A17" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="141"/>
-      <c r="C17" s="141"/>
-      <c r="D17" s="141"/>
-      <c r="E17" s="141"/>
-      <c r="F17" s="141"/>
-      <c r="G17" s="141"/>
-      <c r="H17" s="141"/>
-      <c r="I17" s="141"/>
-      <c r="J17" s="141"/>
-      <c r="K17" s="141"/>
+      <c r="B17" s="146"/>
+      <c r="C17" s="146"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="146"/>
+      <c r="I17" s="146"/>
+      <c r="J17" s="146"/>
+      <c r="K17" s="146"/>
       <c r="L17" s="101"/>
-      <c r="M17" s="145"/>
-      <c r="N17" s="146"/>
-      <c r="O17" s="146"/>
-      <c r="P17" s="146"/>
-      <c r="Q17" s="146"/>
-      <c r="R17" s="147"/>
+      <c r="M17" s="150"/>
+      <c r="N17" s="151"/>
+      <c r="O17" s="151"/>
+      <c r="P17" s="151"/>
+      <c r="Q17" s="151"/>
+      <c r="R17" s="152"/>
     </row>
     <row r="18" spans="1:18" ht="18">
       <c r="A18" s="87" t="s">
@@ -3018,12 +3014,12 @@
       <c r="J18" s="88"/>
       <c r="K18" s="88"/>
       <c r="L18" s="102"/>
-      <c r="M18" s="148"/>
-      <c r="N18" s="149"/>
-      <c r="O18" s="149"/>
-      <c r="P18" s="149"/>
-      <c r="Q18" s="149"/>
-      <c r="R18" s="150"/>
+      <c r="M18" s="153"/>
+      <c r="N18" s="154"/>
+      <c r="O18" s="154"/>
+      <c r="P18" s="154"/>
+      <c r="Q18" s="154"/>
+      <c r="R18" s="155"/>
     </row>
     <row r="19" spans="1:18" ht="18">
       <c r="A19" s="87"/>
@@ -3038,12 +3034,12 @@
       <c r="J19" s="90"/>
       <c r="K19" s="90"/>
       <c r="L19" s="103"/>
-      <c r="M19" s="148"/>
-      <c r="N19" s="149"/>
-      <c r="O19" s="149"/>
-      <c r="P19" s="149"/>
-      <c r="Q19" s="149"/>
-      <c r="R19" s="150"/>
+      <c r="M19" s="153"/>
+      <c r="N19" s="154"/>
+      <c r="O19" s="154"/>
+      <c r="P19" s="154"/>
+      <c r="Q19" s="154"/>
+      <c r="R19" s="155"/>
     </row>
     <row r="20" spans="1:18" ht="18.75" thickBot="1">
       <c r="A20" s="92"/>
@@ -3058,12 +3054,12 @@
       <c r="J20" s="96"/>
       <c r="K20" s="96"/>
       <c r="L20" s="104"/>
-      <c r="M20" s="120"/>
-      <c r="N20" s="121"/>
-      <c r="O20" s="121"/>
-      <c r="P20" s="121"/>
-      <c r="Q20" s="121"/>
-      <c r="R20" s="122"/>
+      <c r="M20" s="159"/>
+      <c r="N20" s="160"/>
+      <c r="O20" s="160"/>
+      <c r="P20" s="160"/>
+      <c r="Q20" s="160"/>
+      <c r="R20" s="161"/>
     </row>
     <row r="21" spans="1:18" ht="18.75" thickBot="1">
       <c r="A21" s="92"/>
@@ -3078,14 +3074,14 @@
       <c r="J21" s="93"/>
       <c r="K21" s="93"/>
       <c r="L21" s="104"/>
-      <c r="M21" s="123" t="s">
+      <c r="M21" s="162" t="s">
         <v>23</v>
       </c>
-      <c r="N21" s="124"/>
-      <c r="O21" s="124"/>
-      <c r="P21" s="124"/>
-      <c r="Q21" s="124"/>
-      <c r="R21" s="125"/>
+      <c r="N21" s="163"/>
+      <c r="O21" s="163"/>
+      <c r="P21" s="163"/>
+      <c r="Q21" s="163"/>
+      <c r="R21" s="164"/>
     </row>
     <row r="22" spans="1:18" ht="18">
       <c r="A22" s="24" t="s">
@@ -3110,144 +3106,144 @@
       <c r="R22" s="73"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="126"/>
-      <c r="B23" s="127"/>
-      <c r="C23" s="127"/>
-      <c r="D23" s="127"/>
-      <c r="E23" s="127"/>
-      <c r="F23" s="127"/>
-      <c r="G23" s="127"/>
-      <c r="H23" s="127"/>
-      <c r="I23" s="127"/>
-      <c r="J23" s="127"/>
-      <c r="K23" s="127"/>
-      <c r="L23" s="127"/>
-      <c r="M23" s="127"/>
-      <c r="N23" s="127"/>
-      <c r="O23" s="127"/>
-      <c r="P23" s="127"/>
-      <c r="Q23" s="127"/>
-      <c r="R23" s="128"/>
+      <c r="A23" s="132"/>
+      <c r="B23" s="133"/>
+      <c r="C23" s="133"/>
+      <c r="D23" s="133"/>
+      <c r="E23" s="133"/>
+      <c r="F23" s="133"/>
+      <c r="G23" s="133"/>
+      <c r="H23" s="133"/>
+      <c r="I23" s="133"/>
+      <c r="J23" s="133"/>
+      <c r="K23" s="133"/>
+      <c r="L23" s="133"/>
+      <c r="M23" s="133"/>
+      <c r="N23" s="133"/>
+      <c r="O23" s="133"/>
+      <c r="P23" s="133"/>
+      <c r="Q23" s="133"/>
+      <c r="R23" s="134"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="126"/>
-      <c r="B24" s="127"/>
-      <c r="C24" s="127"/>
-      <c r="D24" s="127"/>
-      <c r="E24" s="127"/>
-      <c r="F24" s="127"/>
-      <c r="G24" s="127"/>
-      <c r="H24" s="127"/>
-      <c r="I24" s="127"/>
-      <c r="J24" s="127"/>
-      <c r="K24" s="127"/>
-      <c r="L24" s="127"/>
-      <c r="M24" s="127"/>
-      <c r="N24" s="127"/>
-      <c r="O24" s="127"/>
-      <c r="P24" s="127"/>
-      <c r="Q24" s="127"/>
-      <c r="R24" s="128"/>
+      <c r="A24" s="132"/>
+      <c r="B24" s="133"/>
+      <c r="C24" s="133"/>
+      <c r="D24" s="133"/>
+      <c r="E24" s="133"/>
+      <c r="F24" s="133"/>
+      <c r="G24" s="133"/>
+      <c r="H24" s="133"/>
+      <c r="I24" s="133"/>
+      <c r="J24" s="133"/>
+      <c r="K24" s="133"/>
+      <c r="L24" s="133"/>
+      <c r="M24" s="133"/>
+      <c r="N24" s="133"/>
+      <c r="O24" s="133"/>
+      <c r="P24" s="133"/>
+      <c r="Q24" s="133"/>
+      <c r="R24" s="134"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="126"/>
-      <c r="B25" s="127"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="127"/>
-      <c r="E25" s="127"/>
-      <c r="F25" s="127"/>
-      <c r="G25" s="127"/>
-      <c r="H25" s="127"/>
-      <c r="I25" s="127"/>
-      <c r="J25" s="127"/>
-      <c r="K25" s="127"/>
-      <c r="L25" s="127"/>
-      <c r="M25" s="127"/>
-      <c r="N25" s="127"/>
-      <c r="O25" s="127"/>
-      <c r="P25" s="127"/>
-      <c r="Q25" s="127"/>
-      <c r="R25" s="128"/>
+      <c r="A25" s="132"/>
+      <c r="B25" s="133"/>
+      <c r="C25" s="133"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="133"/>
+      <c r="F25" s="133"/>
+      <c r="G25" s="133"/>
+      <c r="H25" s="133"/>
+      <c r="I25" s="133"/>
+      <c r="J25" s="133"/>
+      <c r="K25" s="133"/>
+      <c r="L25" s="133"/>
+      <c r="M25" s="133"/>
+      <c r="N25" s="133"/>
+      <c r="O25" s="133"/>
+      <c r="P25" s="133"/>
+      <c r="Q25" s="133"/>
+      <c r="R25" s="134"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="126"/>
-      <c r="B26" s="127"/>
-      <c r="C26" s="127"/>
-      <c r="D26" s="127"/>
-      <c r="E26" s="127"/>
-      <c r="F26" s="127"/>
-      <c r="G26" s="127"/>
-      <c r="H26" s="127"/>
-      <c r="I26" s="127"/>
-      <c r="J26" s="127"/>
-      <c r="K26" s="127"/>
-      <c r="L26" s="127"/>
-      <c r="M26" s="127"/>
-      <c r="N26" s="127"/>
-      <c r="O26" s="127"/>
-      <c r="P26" s="127"/>
-      <c r="Q26" s="127"/>
-      <c r="R26" s="128"/>
+      <c r="A26" s="132"/>
+      <c r="B26" s="133"/>
+      <c r="C26" s="133"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="133"/>
+      <c r="F26" s="133"/>
+      <c r="G26" s="133"/>
+      <c r="H26" s="133"/>
+      <c r="I26" s="133"/>
+      <c r="J26" s="133"/>
+      <c r="K26" s="133"/>
+      <c r="L26" s="133"/>
+      <c r="M26" s="133"/>
+      <c r="N26" s="133"/>
+      <c r="O26" s="133"/>
+      <c r="P26" s="133"/>
+      <c r="Q26" s="133"/>
+      <c r="R26" s="134"/>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="126"/>
-      <c r="B27" s="127"/>
-      <c r="C27" s="127"/>
-      <c r="D27" s="127"/>
-      <c r="E27" s="127"/>
-      <c r="F27" s="127"/>
-      <c r="G27" s="127"/>
-      <c r="H27" s="127"/>
-      <c r="I27" s="127"/>
-      <c r="J27" s="127"/>
-      <c r="K27" s="127"/>
-      <c r="L27" s="127"/>
-      <c r="M27" s="127"/>
-      <c r="N27" s="127"/>
-      <c r="O27" s="127"/>
-      <c r="P27" s="127"/>
-      <c r="Q27" s="127"/>
-      <c r="R27" s="128"/>
+      <c r="A27" s="132"/>
+      <c r="B27" s="133"/>
+      <c r="C27" s="133"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="133"/>
+      <c r="F27" s="133"/>
+      <c r="G27" s="133"/>
+      <c r="H27" s="133"/>
+      <c r="I27" s="133"/>
+      <c r="J27" s="133"/>
+      <c r="K27" s="133"/>
+      <c r="L27" s="133"/>
+      <c r="M27" s="133"/>
+      <c r="N27" s="133"/>
+      <c r="O27" s="133"/>
+      <c r="P27" s="133"/>
+      <c r="Q27" s="133"/>
+      <c r="R27" s="134"/>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="126"/>
-      <c r="B28" s="127"/>
-      <c r="C28" s="127"/>
-      <c r="D28" s="127"/>
-      <c r="E28" s="127"/>
-      <c r="F28" s="127"/>
-      <c r="G28" s="127"/>
-      <c r="H28" s="127"/>
-      <c r="I28" s="127"/>
-      <c r="J28" s="127"/>
-      <c r="K28" s="127"/>
-      <c r="L28" s="127"/>
-      <c r="M28" s="127"/>
-      <c r="N28" s="127"/>
-      <c r="O28" s="127"/>
-      <c r="P28" s="127"/>
-      <c r="Q28" s="127"/>
-      <c r="R28" s="128"/>
+      <c r="A28" s="132"/>
+      <c r="B28" s="133"/>
+      <c r="C28" s="133"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="133"/>
+      <c r="F28" s="133"/>
+      <c r="G28" s="133"/>
+      <c r="H28" s="133"/>
+      <c r="I28" s="133"/>
+      <c r="J28" s="133"/>
+      <c r="K28" s="133"/>
+      <c r="L28" s="133"/>
+      <c r="M28" s="133"/>
+      <c r="N28" s="133"/>
+      <c r="O28" s="133"/>
+      <c r="P28" s="133"/>
+      <c r="Q28" s="133"/>
+      <c r="R28" s="134"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="126"/>
-      <c r="B29" s="127"/>
-      <c r="C29" s="127"/>
-      <c r="D29" s="127"/>
-      <c r="E29" s="127"/>
-      <c r="F29" s="127"/>
-      <c r="G29" s="127"/>
-      <c r="H29" s="127"/>
-      <c r="I29" s="127"/>
-      <c r="J29" s="127"/>
-      <c r="K29" s="127"/>
-      <c r="L29" s="127"/>
-      <c r="M29" s="127"/>
-      <c r="N29" s="127"/>
-      <c r="O29" s="127"/>
-      <c r="P29" s="127"/>
-      <c r="Q29" s="127"/>
-      <c r="R29" s="128"/>
+      <c r="A29" s="132"/>
+      <c r="B29" s="133"/>
+      <c r="C29" s="133"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="133"/>
+      <c r="F29" s="133"/>
+      <c r="G29" s="133"/>
+      <c r="H29" s="133"/>
+      <c r="I29" s="133"/>
+      <c r="J29" s="133"/>
+      <c r="K29" s="133"/>
+      <c r="L29" s="133"/>
+      <c r="M29" s="133"/>
+      <c r="N29" s="133"/>
+      <c r="O29" s="133"/>
+      <c r="P29" s="133"/>
+      <c r="Q29" s="133"/>
+      <c r="R29" s="134"/>
     </row>
     <row r="30" spans="1:18" ht="21">
       <c r="A30" s="94" t="s">
@@ -3272,612 +3268,612 @@
       <c r="R30" s="111"/>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="129"/>
-      <c r="B31" s="130"/>
-      <c r="C31" s="130"/>
-      <c r="D31" s="130"/>
-      <c r="E31" s="130"/>
-      <c r="F31" s="130"/>
-      <c r="G31" s="130"/>
-      <c r="H31" s="130"/>
-      <c r="I31" s="130"/>
-      <c r="J31" s="130"/>
-      <c r="K31" s="130"/>
-      <c r="L31" s="130"/>
-      <c r="M31" s="130"/>
-      <c r="N31" s="130"/>
-      <c r="O31" s="130"/>
-      <c r="P31" s="130"/>
-      <c r="Q31" s="130"/>
-      <c r="R31" s="131"/>
+      <c r="A31" s="135"/>
+      <c r="B31" s="136"/>
+      <c r="C31" s="136"/>
+      <c r="D31" s="136"/>
+      <c r="E31" s="136"/>
+      <c r="F31" s="136"/>
+      <c r="G31" s="136"/>
+      <c r="H31" s="136"/>
+      <c r="I31" s="136"/>
+      <c r="J31" s="136"/>
+      <c r="K31" s="136"/>
+      <c r="L31" s="136"/>
+      <c r="M31" s="136"/>
+      <c r="N31" s="136"/>
+      <c r="O31" s="136"/>
+      <c r="P31" s="136"/>
+      <c r="Q31" s="136"/>
+      <c r="R31" s="137"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="129"/>
-      <c r="B32" s="130"/>
-      <c r="C32" s="130"/>
-      <c r="D32" s="130"/>
-      <c r="E32" s="130"/>
-      <c r="F32" s="130"/>
-      <c r="G32" s="130"/>
-      <c r="H32" s="130"/>
-      <c r="I32" s="130"/>
-      <c r="J32" s="130"/>
-      <c r="K32" s="130"/>
-      <c r="L32" s="130"/>
-      <c r="M32" s="130"/>
-      <c r="N32" s="130"/>
-      <c r="O32" s="130"/>
-      <c r="P32" s="130"/>
-      <c r="Q32" s="130"/>
-      <c r="R32" s="131"/>
+      <c r="A32" s="135"/>
+      <c r="B32" s="136"/>
+      <c r="C32" s="136"/>
+      <c r="D32" s="136"/>
+      <c r="E32" s="136"/>
+      <c r="F32" s="136"/>
+      <c r="G32" s="136"/>
+      <c r="H32" s="136"/>
+      <c r="I32" s="136"/>
+      <c r="J32" s="136"/>
+      <c r="K32" s="136"/>
+      <c r="L32" s="136"/>
+      <c r="M32" s="136"/>
+      <c r="N32" s="136"/>
+      <c r="O32" s="136"/>
+      <c r="P32" s="136"/>
+      <c r="Q32" s="136"/>
+      <c r="R32" s="137"/>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" s="129"/>
-      <c r="B33" s="130"/>
-      <c r="C33" s="130"/>
-      <c r="D33" s="130"/>
-      <c r="E33" s="130"/>
-      <c r="F33" s="130"/>
-      <c r="G33" s="130"/>
-      <c r="H33" s="130"/>
-      <c r="I33" s="130"/>
-      <c r="J33" s="130"/>
-      <c r="K33" s="130"/>
-      <c r="L33" s="130"/>
-      <c r="M33" s="130"/>
-      <c r="N33" s="130"/>
-      <c r="O33" s="130"/>
-      <c r="P33" s="130"/>
-      <c r="Q33" s="130"/>
-      <c r="R33" s="131"/>
+      <c r="A33" s="135"/>
+      <c r="B33" s="136"/>
+      <c r="C33" s="136"/>
+      <c r="D33" s="136"/>
+      <c r="E33" s="136"/>
+      <c r="F33" s="136"/>
+      <c r="G33" s="136"/>
+      <c r="H33" s="136"/>
+      <c r="I33" s="136"/>
+      <c r="J33" s="136"/>
+      <c r="K33" s="136"/>
+      <c r="L33" s="136"/>
+      <c r="M33" s="136"/>
+      <c r="N33" s="136"/>
+      <c r="O33" s="136"/>
+      <c r="P33" s="136"/>
+      <c r="Q33" s="136"/>
+      <c r="R33" s="137"/>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34" s="129"/>
-      <c r="B34" s="130"/>
-      <c r="C34" s="130"/>
-      <c r="D34" s="130"/>
-      <c r="E34" s="130"/>
-      <c r="F34" s="130"/>
-      <c r="G34" s="130"/>
-      <c r="H34" s="130"/>
-      <c r="I34" s="130"/>
-      <c r="J34" s="130"/>
-      <c r="K34" s="130"/>
-      <c r="L34" s="130"/>
-      <c r="M34" s="130"/>
-      <c r="N34" s="130"/>
-      <c r="O34" s="130"/>
-      <c r="P34" s="130"/>
-      <c r="Q34" s="130"/>
-      <c r="R34" s="131"/>
+      <c r="A34" s="135"/>
+      <c r="B34" s="136"/>
+      <c r="C34" s="136"/>
+      <c r="D34" s="136"/>
+      <c r="E34" s="136"/>
+      <c r="F34" s="136"/>
+      <c r="G34" s="136"/>
+      <c r="H34" s="136"/>
+      <c r="I34" s="136"/>
+      <c r="J34" s="136"/>
+      <c r="K34" s="136"/>
+      <c r="L34" s="136"/>
+      <c r="M34" s="136"/>
+      <c r="N34" s="136"/>
+      <c r="O34" s="136"/>
+      <c r="P34" s="136"/>
+      <c r="Q34" s="136"/>
+      <c r="R34" s="137"/>
     </row>
     <row r="35" spans="1:18">
-      <c r="A35" s="129"/>
-      <c r="B35" s="130"/>
-      <c r="C35" s="130"/>
-      <c r="D35" s="130"/>
-      <c r="E35" s="130"/>
-      <c r="F35" s="130"/>
-      <c r="G35" s="130"/>
-      <c r="H35" s="130"/>
-      <c r="I35" s="130"/>
-      <c r="J35" s="130"/>
-      <c r="K35" s="130"/>
-      <c r="L35" s="130"/>
-      <c r="M35" s="130"/>
-      <c r="N35" s="130"/>
-      <c r="O35" s="130"/>
-      <c r="P35" s="130"/>
-      <c r="Q35" s="130"/>
-      <c r="R35" s="131"/>
+      <c r="A35" s="135"/>
+      <c r="B35" s="136"/>
+      <c r="C35" s="136"/>
+      <c r="D35" s="136"/>
+      <c r="E35" s="136"/>
+      <c r="F35" s="136"/>
+      <c r="G35" s="136"/>
+      <c r="H35" s="136"/>
+      <c r="I35" s="136"/>
+      <c r="J35" s="136"/>
+      <c r="K35" s="136"/>
+      <c r="L35" s="136"/>
+      <c r="M35" s="136"/>
+      <c r="N35" s="136"/>
+      <c r="O35" s="136"/>
+      <c r="P35" s="136"/>
+      <c r="Q35" s="136"/>
+      <c r="R35" s="137"/>
     </row>
     <row r="36" spans="1:18">
-      <c r="A36" s="129"/>
-      <c r="B36" s="130"/>
-      <c r="C36" s="130"/>
-      <c r="D36" s="130"/>
-      <c r="E36" s="130"/>
-      <c r="F36" s="130"/>
-      <c r="G36" s="130"/>
-      <c r="H36" s="130"/>
-      <c r="I36" s="130"/>
-      <c r="J36" s="130"/>
-      <c r="K36" s="130"/>
-      <c r="L36" s="130"/>
-      <c r="M36" s="130"/>
-      <c r="N36" s="130"/>
-      <c r="O36" s="130"/>
-      <c r="P36" s="130"/>
-      <c r="Q36" s="130"/>
-      <c r="R36" s="131"/>
+      <c r="A36" s="135"/>
+      <c r="B36" s="136"/>
+      <c r="C36" s="136"/>
+      <c r="D36" s="136"/>
+      <c r="E36" s="136"/>
+      <c r="F36" s="136"/>
+      <c r="G36" s="136"/>
+      <c r="H36" s="136"/>
+      <c r="I36" s="136"/>
+      <c r="J36" s="136"/>
+      <c r="K36" s="136"/>
+      <c r="L36" s="136"/>
+      <c r="M36" s="136"/>
+      <c r="N36" s="136"/>
+      <c r="O36" s="136"/>
+      <c r="P36" s="136"/>
+      <c r="Q36" s="136"/>
+      <c r="R36" s="137"/>
     </row>
     <row r="37" spans="1:18">
-      <c r="A37" s="129"/>
-      <c r="B37" s="130"/>
-      <c r="C37" s="130"/>
-      <c r="D37" s="130"/>
-      <c r="E37" s="130"/>
-      <c r="F37" s="130"/>
-      <c r="G37" s="130"/>
-      <c r="H37" s="130"/>
-      <c r="I37" s="130"/>
-      <c r="J37" s="130"/>
-      <c r="K37" s="130"/>
-      <c r="L37" s="130"/>
-      <c r="M37" s="130"/>
-      <c r="N37" s="130"/>
-      <c r="O37" s="130"/>
-      <c r="P37" s="130"/>
-      <c r="Q37" s="130"/>
-      <c r="R37" s="131"/>
+      <c r="A37" s="135"/>
+      <c r="B37" s="136"/>
+      <c r="C37" s="136"/>
+      <c r="D37" s="136"/>
+      <c r="E37" s="136"/>
+      <c r="F37" s="136"/>
+      <c r="G37" s="136"/>
+      <c r="H37" s="136"/>
+      <c r="I37" s="136"/>
+      <c r="J37" s="136"/>
+      <c r="K37" s="136"/>
+      <c r="L37" s="136"/>
+      <c r="M37" s="136"/>
+      <c r="N37" s="136"/>
+      <c r="O37" s="136"/>
+      <c r="P37" s="136"/>
+      <c r="Q37" s="136"/>
+      <c r="R37" s="137"/>
     </row>
     <row r="38" spans="1:18">
-      <c r="A38" s="129"/>
-      <c r="B38" s="130"/>
-      <c r="C38" s="130"/>
-      <c r="D38" s="130"/>
-      <c r="E38" s="130"/>
-      <c r="F38" s="130"/>
-      <c r="G38" s="130"/>
-      <c r="H38" s="130"/>
-      <c r="I38" s="130"/>
-      <c r="J38" s="130"/>
-      <c r="K38" s="130"/>
-      <c r="L38" s="130"/>
-      <c r="M38" s="130"/>
-      <c r="N38" s="130"/>
-      <c r="O38" s="130"/>
-      <c r="P38" s="130"/>
-      <c r="Q38" s="130"/>
-      <c r="R38" s="131"/>
+      <c r="A38" s="135"/>
+      <c r="B38" s="136"/>
+      <c r="C38" s="136"/>
+      <c r="D38" s="136"/>
+      <c r="E38" s="136"/>
+      <c r="F38" s="136"/>
+      <c r="G38" s="136"/>
+      <c r="H38" s="136"/>
+      <c r="I38" s="136"/>
+      <c r="J38" s="136"/>
+      <c r="K38" s="136"/>
+      <c r="L38" s="136"/>
+      <c r="M38" s="136"/>
+      <c r="N38" s="136"/>
+      <c r="O38" s="136"/>
+      <c r="P38" s="136"/>
+      <c r="Q38" s="136"/>
+      <c r="R38" s="137"/>
     </row>
     <row r="39" spans="1:18">
-      <c r="A39" s="129"/>
-      <c r="B39" s="130"/>
-      <c r="C39" s="130"/>
-      <c r="D39" s="130"/>
-      <c r="E39" s="130"/>
-      <c r="F39" s="130"/>
-      <c r="G39" s="130"/>
-      <c r="H39" s="130"/>
-      <c r="I39" s="130"/>
-      <c r="J39" s="130"/>
-      <c r="K39" s="130"/>
-      <c r="L39" s="130"/>
-      <c r="M39" s="130"/>
-      <c r="N39" s="130"/>
-      <c r="O39" s="130"/>
-      <c r="P39" s="130"/>
-      <c r="Q39" s="130"/>
-      <c r="R39" s="131"/>
+      <c r="A39" s="135"/>
+      <c r="B39" s="136"/>
+      <c r="C39" s="136"/>
+      <c r="D39" s="136"/>
+      <c r="E39" s="136"/>
+      <c r="F39" s="136"/>
+      <c r="G39" s="136"/>
+      <c r="H39" s="136"/>
+      <c r="I39" s="136"/>
+      <c r="J39" s="136"/>
+      <c r="K39" s="136"/>
+      <c r="L39" s="136"/>
+      <c r="M39" s="136"/>
+      <c r="N39" s="136"/>
+      <c r="O39" s="136"/>
+      <c r="P39" s="136"/>
+      <c r="Q39" s="136"/>
+      <c r="R39" s="137"/>
     </row>
     <row r="40" spans="1:18">
-      <c r="A40" s="129"/>
-      <c r="B40" s="130"/>
-      <c r="C40" s="130"/>
-      <c r="D40" s="130"/>
-      <c r="E40" s="130"/>
-      <c r="F40" s="130"/>
-      <c r="G40" s="130"/>
-      <c r="H40" s="130"/>
-      <c r="I40" s="130"/>
-      <c r="J40" s="130"/>
-      <c r="K40" s="130"/>
-      <c r="L40" s="130"/>
-      <c r="M40" s="130"/>
-      <c r="N40" s="130"/>
-      <c r="O40" s="130"/>
-      <c r="P40" s="130"/>
-      <c r="Q40" s="130"/>
-      <c r="R40" s="131"/>
+      <c r="A40" s="135"/>
+      <c r="B40" s="136"/>
+      <c r="C40" s="136"/>
+      <c r="D40" s="136"/>
+      <c r="E40" s="136"/>
+      <c r="F40" s="136"/>
+      <c r="G40" s="136"/>
+      <c r="H40" s="136"/>
+      <c r="I40" s="136"/>
+      <c r="J40" s="136"/>
+      <c r="K40" s="136"/>
+      <c r="L40" s="136"/>
+      <c r="M40" s="136"/>
+      <c r="N40" s="136"/>
+      <c r="O40" s="136"/>
+      <c r="P40" s="136"/>
+      <c r="Q40" s="136"/>
+      <c r="R40" s="137"/>
     </row>
     <row r="41" spans="1:18">
-      <c r="A41" s="129"/>
-      <c r="B41" s="130"/>
-      <c r="C41" s="130"/>
-      <c r="D41" s="130"/>
-      <c r="E41" s="130"/>
-      <c r="F41" s="130"/>
-      <c r="G41" s="130"/>
-      <c r="H41" s="130"/>
-      <c r="I41" s="130"/>
-      <c r="J41" s="130"/>
-      <c r="K41" s="130"/>
-      <c r="L41" s="130"/>
-      <c r="M41" s="130"/>
-      <c r="N41" s="130"/>
-      <c r="O41" s="130"/>
-      <c r="P41" s="130"/>
-      <c r="Q41" s="130"/>
-      <c r="R41" s="131"/>
+      <c r="A41" s="135"/>
+      <c r="B41" s="136"/>
+      <c r="C41" s="136"/>
+      <c r="D41" s="136"/>
+      <c r="E41" s="136"/>
+      <c r="F41" s="136"/>
+      <c r="G41" s="136"/>
+      <c r="H41" s="136"/>
+      <c r="I41" s="136"/>
+      <c r="J41" s="136"/>
+      <c r="K41" s="136"/>
+      <c r="L41" s="136"/>
+      <c r="M41" s="136"/>
+      <c r="N41" s="136"/>
+      <c r="O41" s="136"/>
+      <c r="P41" s="136"/>
+      <c r="Q41" s="136"/>
+      <c r="R41" s="137"/>
     </row>
     <row r="42" spans="1:18">
-      <c r="A42" s="129"/>
-      <c r="B42" s="130"/>
-      <c r="C42" s="130"/>
-      <c r="D42" s="130"/>
-      <c r="E42" s="130"/>
-      <c r="F42" s="130"/>
-      <c r="G42" s="130"/>
-      <c r="H42" s="130"/>
-      <c r="I42" s="130"/>
-      <c r="J42" s="130"/>
-      <c r="K42" s="130"/>
-      <c r="L42" s="130"/>
-      <c r="M42" s="130"/>
-      <c r="N42" s="130"/>
-      <c r="O42" s="130"/>
-      <c r="P42" s="130"/>
-      <c r="Q42" s="130"/>
-      <c r="R42" s="131"/>
+      <c r="A42" s="135"/>
+      <c r="B42" s="136"/>
+      <c r="C42" s="136"/>
+      <c r="D42" s="136"/>
+      <c r="E42" s="136"/>
+      <c r="F42" s="136"/>
+      <c r="G42" s="136"/>
+      <c r="H42" s="136"/>
+      <c r="I42" s="136"/>
+      <c r="J42" s="136"/>
+      <c r="K42" s="136"/>
+      <c r="L42" s="136"/>
+      <c r="M42" s="136"/>
+      <c r="N42" s="136"/>
+      <c r="O42" s="136"/>
+      <c r="P42" s="136"/>
+      <c r="Q42" s="136"/>
+      <c r="R42" s="137"/>
     </row>
     <row r="43" spans="1:18">
-      <c r="A43" s="129"/>
-      <c r="B43" s="130"/>
-      <c r="C43" s="130"/>
-      <c r="D43" s="130"/>
-      <c r="E43" s="130"/>
-      <c r="F43" s="130"/>
-      <c r="G43" s="130"/>
-      <c r="H43" s="130"/>
-      <c r="I43" s="130"/>
-      <c r="J43" s="130"/>
-      <c r="K43" s="130"/>
-      <c r="L43" s="130"/>
-      <c r="M43" s="130"/>
-      <c r="N43" s="130"/>
-      <c r="O43" s="130"/>
-      <c r="P43" s="130"/>
-      <c r="Q43" s="130"/>
-      <c r="R43" s="131"/>
+      <c r="A43" s="135"/>
+      <c r="B43" s="136"/>
+      <c r="C43" s="136"/>
+      <c r="D43" s="136"/>
+      <c r="E43" s="136"/>
+      <c r="F43" s="136"/>
+      <c r="G43" s="136"/>
+      <c r="H43" s="136"/>
+      <c r="I43" s="136"/>
+      <c r="J43" s="136"/>
+      <c r="K43" s="136"/>
+      <c r="L43" s="136"/>
+      <c r="M43" s="136"/>
+      <c r="N43" s="136"/>
+      <c r="O43" s="136"/>
+      <c r="P43" s="136"/>
+      <c r="Q43" s="136"/>
+      <c r="R43" s="137"/>
     </row>
     <row r="44" spans="1:18">
-      <c r="A44" s="129"/>
-      <c r="B44" s="130"/>
-      <c r="C44" s="130"/>
-      <c r="D44" s="130"/>
-      <c r="E44" s="130"/>
-      <c r="F44" s="130"/>
-      <c r="G44" s="130"/>
-      <c r="H44" s="130"/>
-      <c r="I44" s="130"/>
-      <c r="J44" s="130"/>
-      <c r="K44" s="130"/>
-      <c r="L44" s="130"/>
-      <c r="M44" s="130"/>
-      <c r="N44" s="130"/>
-      <c r="O44" s="130"/>
-      <c r="P44" s="130"/>
-      <c r="Q44" s="130"/>
-      <c r="R44" s="131"/>
+      <c r="A44" s="135"/>
+      <c r="B44" s="136"/>
+      <c r="C44" s="136"/>
+      <c r="D44" s="136"/>
+      <c r="E44" s="136"/>
+      <c r="F44" s="136"/>
+      <c r="G44" s="136"/>
+      <c r="H44" s="136"/>
+      <c r="I44" s="136"/>
+      <c r="J44" s="136"/>
+      <c r="K44" s="136"/>
+      <c r="L44" s="136"/>
+      <c r="M44" s="136"/>
+      <c r="N44" s="136"/>
+      <c r="O44" s="136"/>
+      <c r="P44" s="136"/>
+      <c r="Q44" s="136"/>
+      <c r="R44" s="137"/>
     </row>
     <row r="45" spans="1:18">
-      <c r="A45" s="129"/>
-      <c r="B45" s="130"/>
-      <c r="C45" s="130"/>
-      <c r="D45" s="130"/>
-      <c r="E45" s="130"/>
-      <c r="F45" s="130"/>
-      <c r="G45" s="130"/>
-      <c r="H45" s="130"/>
-      <c r="I45" s="130"/>
-      <c r="J45" s="130"/>
-      <c r="K45" s="130"/>
-      <c r="L45" s="130"/>
-      <c r="M45" s="130"/>
-      <c r="N45" s="130"/>
-      <c r="O45" s="130"/>
-      <c r="P45" s="130"/>
-      <c r="Q45" s="130"/>
-      <c r="R45" s="131"/>
+      <c r="A45" s="135"/>
+      <c r="B45" s="136"/>
+      <c r="C45" s="136"/>
+      <c r="D45" s="136"/>
+      <c r="E45" s="136"/>
+      <c r="F45" s="136"/>
+      <c r="G45" s="136"/>
+      <c r="H45" s="136"/>
+      <c r="I45" s="136"/>
+      <c r="J45" s="136"/>
+      <c r="K45" s="136"/>
+      <c r="L45" s="136"/>
+      <c r="M45" s="136"/>
+      <c r="N45" s="136"/>
+      <c r="O45" s="136"/>
+      <c r="P45" s="136"/>
+      <c r="Q45" s="136"/>
+      <c r="R45" s="137"/>
     </row>
     <row r="46" spans="1:18">
-      <c r="A46" s="129"/>
-      <c r="B46" s="130"/>
-      <c r="C46" s="130"/>
-      <c r="D46" s="130"/>
-      <c r="E46" s="130"/>
-      <c r="F46" s="130"/>
-      <c r="G46" s="130"/>
-      <c r="H46" s="130"/>
-      <c r="I46" s="130"/>
-      <c r="J46" s="130"/>
-      <c r="K46" s="130"/>
-      <c r="L46" s="130"/>
-      <c r="M46" s="130"/>
-      <c r="N46" s="130"/>
-      <c r="O46" s="130"/>
-      <c r="P46" s="130"/>
-      <c r="Q46" s="130"/>
-      <c r="R46" s="131"/>
+      <c r="A46" s="135"/>
+      <c r="B46" s="136"/>
+      <c r="C46" s="136"/>
+      <c r="D46" s="136"/>
+      <c r="E46" s="136"/>
+      <c r="F46" s="136"/>
+      <c r="G46" s="136"/>
+      <c r="H46" s="136"/>
+      <c r="I46" s="136"/>
+      <c r="J46" s="136"/>
+      <c r="K46" s="136"/>
+      <c r="L46" s="136"/>
+      <c r="M46" s="136"/>
+      <c r="N46" s="136"/>
+      <c r="O46" s="136"/>
+      <c r="P46" s="136"/>
+      <c r="Q46" s="136"/>
+      <c r="R46" s="137"/>
     </row>
     <row r="47" spans="1:18">
-      <c r="A47" s="129"/>
-      <c r="B47" s="130"/>
-      <c r="C47" s="130"/>
-      <c r="D47" s="130"/>
-      <c r="E47" s="130"/>
-      <c r="F47" s="130"/>
-      <c r="G47" s="130"/>
-      <c r="H47" s="130"/>
-      <c r="I47" s="130"/>
-      <c r="J47" s="130"/>
-      <c r="K47" s="130"/>
-      <c r="L47" s="130"/>
-      <c r="M47" s="130"/>
-      <c r="N47" s="130"/>
-      <c r="O47" s="130"/>
-      <c r="P47" s="130"/>
-      <c r="Q47" s="130"/>
-      <c r="R47" s="131"/>
+      <c r="A47" s="135"/>
+      <c r="B47" s="136"/>
+      <c r="C47" s="136"/>
+      <c r="D47" s="136"/>
+      <c r="E47" s="136"/>
+      <c r="F47" s="136"/>
+      <c r="G47" s="136"/>
+      <c r="H47" s="136"/>
+      <c r="I47" s="136"/>
+      <c r="J47" s="136"/>
+      <c r="K47" s="136"/>
+      <c r="L47" s="136"/>
+      <c r="M47" s="136"/>
+      <c r="N47" s="136"/>
+      <c r="O47" s="136"/>
+      <c r="P47" s="136"/>
+      <c r="Q47" s="136"/>
+      <c r="R47" s="137"/>
     </row>
     <row r="48" spans="1:18">
-      <c r="A48" s="129"/>
-      <c r="B48" s="130"/>
-      <c r="C48" s="130"/>
-      <c r="D48" s="130"/>
-      <c r="E48" s="130"/>
-      <c r="F48" s="130"/>
-      <c r="G48" s="130"/>
-      <c r="H48" s="130"/>
-      <c r="I48" s="130"/>
-      <c r="J48" s="130"/>
-      <c r="K48" s="130"/>
-      <c r="L48" s="130"/>
-      <c r="M48" s="130"/>
-      <c r="N48" s="130"/>
-      <c r="O48" s="130"/>
-      <c r="P48" s="130"/>
-      <c r="Q48" s="130"/>
-      <c r="R48" s="131"/>
+      <c r="A48" s="135"/>
+      <c r="B48" s="136"/>
+      <c r="C48" s="136"/>
+      <c r="D48" s="136"/>
+      <c r="E48" s="136"/>
+      <c r="F48" s="136"/>
+      <c r="G48" s="136"/>
+      <c r="H48" s="136"/>
+      <c r="I48" s="136"/>
+      <c r="J48" s="136"/>
+      <c r="K48" s="136"/>
+      <c r="L48" s="136"/>
+      <c r="M48" s="136"/>
+      <c r="N48" s="136"/>
+      <c r="O48" s="136"/>
+      <c r="P48" s="136"/>
+      <c r="Q48" s="136"/>
+      <c r="R48" s="137"/>
     </row>
     <row r="49" spans="1:18">
-      <c r="A49" s="129"/>
-      <c r="B49" s="130"/>
-      <c r="C49" s="130"/>
-      <c r="D49" s="130"/>
-      <c r="E49" s="130"/>
-      <c r="F49" s="130"/>
-      <c r="G49" s="130"/>
-      <c r="H49" s="130"/>
-      <c r="I49" s="130"/>
-      <c r="J49" s="130"/>
-      <c r="K49" s="130"/>
-      <c r="L49" s="130"/>
-      <c r="M49" s="130"/>
-      <c r="N49" s="130"/>
-      <c r="O49" s="130"/>
-      <c r="P49" s="130"/>
-      <c r="Q49" s="130"/>
-      <c r="R49" s="131"/>
+      <c r="A49" s="135"/>
+      <c r="B49" s="136"/>
+      <c r="C49" s="136"/>
+      <c r="D49" s="136"/>
+      <c r="E49" s="136"/>
+      <c r="F49" s="136"/>
+      <c r="G49" s="136"/>
+      <c r="H49" s="136"/>
+      <c r="I49" s="136"/>
+      <c r="J49" s="136"/>
+      <c r="K49" s="136"/>
+      <c r="L49" s="136"/>
+      <c r="M49" s="136"/>
+      <c r="N49" s="136"/>
+      <c r="O49" s="136"/>
+      <c r="P49" s="136"/>
+      <c r="Q49" s="136"/>
+      <c r="R49" s="137"/>
     </row>
     <row r="50" spans="1:18">
-      <c r="A50" s="129"/>
-      <c r="B50" s="130"/>
-      <c r="C50" s="130"/>
-      <c r="D50" s="130"/>
-      <c r="E50" s="130"/>
-      <c r="F50" s="130"/>
-      <c r="G50" s="130"/>
-      <c r="H50" s="130"/>
-      <c r="I50" s="130"/>
-      <c r="J50" s="130"/>
-      <c r="K50" s="130"/>
-      <c r="L50" s="130"/>
-      <c r="M50" s="130"/>
-      <c r="N50" s="130"/>
-      <c r="O50" s="130"/>
-      <c r="P50" s="130"/>
-      <c r="Q50" s="130"/>
-      <c r="R50" s="131"/>
+      <c r="A50" s="135"/>
+      <c r="B50" s="136"/>
+      <c r="C50" s="136"/>
+      <c r="D50" s="136"/>
+      <c r="E50" s="136"/>
+      <c r="F50" s="136"/>
+      <c r="G50" s="136"/>
+      <c r="H50" s="136"/>
+      <c r="I50" s="136"/>
+      <c r="J50" s="136"/>
+      <c r="K50" s="136"/>
+      <c r="L50" s="136"/>
+      <c r="M50" s="136"/>
+      <c r="N50" s="136"/>
+      <c r="O50" s="136"/>
+      <c r="P50" s="136"/>
+      <c r="Q50" s="136"/>
+      <c r="R50" s="137"/>
     </row>
     <row r="51" spans="1:18">
-      <c r="A51" s="129"/>
-      <c r="B51" s="130"/>
-      <c r="C51" s="130"/>
-      <c r="D51" s="130"/>
-      <c r="E51" s="130"/>
-      <c r="F51" s="130"/>
-      <c r="G51" s="130"/>
-      <c r="H51" s="130"/>
-      <c r="I51" s="130"/>
-      <c r="J51" s="130"/>
-      <c r="K51" s="130"/>
-      <c r="L51" s="130"/>
-      <c r="M51" s="130"/>
-      <c r="N51" s="130"/>
-      <c r="O51" s="130"/>
-      <c r="P51" s="130"/>
-      <c r="Q51" s="130"/>
-      <c r="R51" s="131"/>
+      <c r="A51" s="135"/>
+      <c r="B51" s="136"/>
+      <c r="C51" s="136"/>
+      <c r="D51" s="136"/>
+      <c r="E51" s="136"/>
+      <c r="F51" s="136"/>
+      <c r="G51" s="136"/>
+      <c r="H51" s="136"/>
+      <c r="I51" s="136"/>
+      <c r="J51" s="136"/>
+      <c r="K51" s="136"/>
+      <c r="L51" s="136"/>
+      <c r="M51" s="136"/>
+      <c r="N51" s="136"/>
+      <c r="O51" s="136"/>
+      <c r="P51" s="136"/>
+      <c r="Q51" s="136"/>
+      <c r="R51" s="137"/>
     </row>
     <row r="52" spans="1:18">
-      <c r="A52" s="129"/>
-      <c r="B52" s="130"/>
-      <c r="C52" s="130"/>
-      <c r="D52" s="130"/>
-      <c r="E52" s="130"/>
-      <c r="F52" s="130"/>
-      <c r="G52" s="130"/>
-      <c r="H52" s="130"/>
-      <c r="I52" s="130"/>
-      <c r="J52" s="130"/>
-      <c r="K52" s="130"/>
-      <c r="L52" s="130"/>
-      <c r="M52" s="130"/>
-      <c r="N52" s="130"/>
-      <c r="O52" s="130"/>
-      <c r="P52" s="130"/>
-      <c r="Q52" s="130"/>
-      <c r="R52" s="131"/>
+      <c r="A52" s="135"/>
+      <c r="B52" s="136"/>
+      <c r="C52" s="136"/>
+      <c r="D52" s="136"/>
+      <c r="E52" s="136"/>
+      <c r="F52" s="136"/>
+      <c r="G52" s="136"/>
+      <c r="H52" s="136"/>
+      <c r="I52" s="136"/>
+      <c r="J52" s="136"/>
+      <c r="K52" s="136"/>
+      <c r="L52" s="136"/>
+      <c r="M52" s="136"/>
+      <c r="N52" s="136"/>
+      <c r="O52" s="136"/>
+      <c r="P52" s="136"/>
+      <c r="Q52" s="136"/>
+      <c r="R52" s="137"/>
     </row>
     <row r="53" spans="1:18">
-      <c r="A53" s="129"/>
-      <c r="B53" s="130"/>
-      <c r="C53" s="130"/>
-      <c r="D53" s="130"/>
-      <c r="E53" s="130"/>
-      <c r="F53" s="130"/>
-      <c r="G53" s="130"/>
-      <c r="H53" s="130"/>
-      <c r="I53" s="130"/>
-      <c r="J53" s="130"/>
-      <c r="K53" s="130"/>
-      <c r="L53" s="130"/>
-      <c r="M53" s="130"/>
-      <c r="N53" s="130"/>
-      <c r="O53" s="130"/>
-      <c r="P53" s="130"/>
-      <c r="Q53" s="130"/>
-      <c r="R53" s="131"/>
+      <c r="A53" s="135"/>
+      <c r="B53" s="136"/>
+      <c r="C53" s="136"/>
+      <c r="D53" s="136"/>
+      <c r="E53" s="136"/>
+      <c r="F53" s="136"/>
+      <c r="G53" s="136"/>
+      <c r="H53" s="136"/>
+      <c r="I53" s="136"/>
+      <c r="J53" s="136"/>
+      <c r="K53" s="136"/>
+      <c r="L53" s="136"/>
+      <c r="M53" s="136"/>
+      <c r="N53" s="136"/>
+      <c r="O53" s="136"/>
+      <c r="P53" s="136"/>
+      <c r="Q53" s="136"/>
+      <c r="R53" s="137"/>
     </row>
     <row r="54" spans="1:18">
-      <c r="A54" s="129"/>
-      <c r="B54" s="130"/>
-      <c r="C54" s="130"/>
-      <c r="D54" s="130"/>
-      <c r="E54" s="130"/>
-      <c r="F54" s="130"/>
-      <c r="G54" s="130"/>
-      <c r="H54" s="130"/>
-      <c r="I54" s="130"/>
-      <c r="J54" s="130"/>
-      <c r="K54" s="130"/>
-      <c r="L54" s="130"/>
-      <c r="M54" s="130"/>
-      <c r="N54" s="130"/>
-      <c r="O54" s="130"/>
-      <c r="P54" s="130"/>
-      <c r="Q54" s="130"/>
-      <c r="R54" s="131"/>
+      <c r="A54" s="135"/>
+      <c r="B54" s="136"/>
+      <c r="C54" s="136"/>
+      <c r="D54" s="136"/>
+      <c r="E54" s="136"/>
+      <c r="F54" s="136"/>
+      <c r="G54" s="136"/>
+      <c r="H54" s="136"/>
+      <c r="I54" s="136"/>
+      <c r="J54" s="136"/>
+      <c r="K54" s="136"/>
+      <c r="L54" s="136"/>
+      <c r="M54" s="136"/>
+      <c r="N54" s="136"/>
+      <c r="O54" s="136"/>
+      <c r="P54" s="136"/>
+      <c r="Q54" s="136"/>
+      <c r="R54" s="137"/>
     </row>
     <row r="55" spans="1:18">
-      <c r="A55" s="129"/>
-      <c r="B55" s="130"/>
-      <c r="C55" s="130"/>
-      <c r="D55" s="130"/>
-      <c r="E55" s="130"/>
-      <c r="F55" s="130"/>
-      <c r="G55" s="130"/>
-      <c r="H55" s="130"/>
-      <c r="I55" s="130"/>
-      <c r="J55" s="130"/>
-      <c r="K55" s="130"/>
-      <c r="L55" s="130"/>
-      <c r="M55" s="130"/>
-      <c r="N55" s="130"/>
-      <c r="O55" s="130"/>
-      <c r="P55" s="130"/>
-      <c r="Q55" s="130"/>
-      <c r="R55" s="131"/>
+      <c r="A55" s="135"/>
+      <c r="B55" s="136"/>
+      <c r="C55" s="136"/>
+      <c r="D55" s="136"/>
+      <c r="E55" s="136"/>
+      <c r="F55" s="136"/>
+      <c r="G55" s="136"/>
+      <c r="H55" s="136"/>
+      <c r="I55" s="136"/>
+      <c r="J55" s="136"/>
+      <c r="K55" s="136"/>
+      <c r="L55" s="136"/>
+      <c r="M55" s="136"/>
+      <c r="N55" s="136"/>
+      <c r="O55" s="136"/>
+      <c r="P55" s="136"/>
+      <c r="Q55" s="136"/>
+      <c r="R55" s="137"/>
     </row>
     <row r="56" spans="1:18">
-      <c r="A56" s="129"/>
-      <c r="B56" s="130"/>
-      <c r="C56" s="130"/>
-      <c r="D56" s="130"/>
-      <c r="E56" s="130"/>
-      <c r="F56" s="130"/>
-      <c r="G56" s="130"/>
-      <c r="H56" s="130"/>
-      <c r="I56" s="130"/>
-      <c r="J56" s="130"/>
-      <c r="K56" s="130"/>
-      <c r="L56" s="130"/>
-      <c r="M56" s="130"/>
-      <c r="N56" s="130"/>
-      <c r="O56" s="130"/>
-      <c r="P56" s="130"/>
-      <c r="Q56" s="130"/>
-      <c r="R56" s="131"/>
+      <c r="A56" s="135"/>
+      <c r="B56" s="136"/>
+      <c r="C56" s="136"/>
+      <c r="D56" s="136"/>
+      <c r="E56" s="136"/>
+      <c r="F56" s="136"/>
+      <c r="G56" s="136"/>
+      <c r="H56" s="136"/>
+      <c r="I56" s="136"/>
+      <c r="J56" s="136"/>
+      <c r="K56" s="136"/>
+      <c r="L56" s="136"/>
+      <c r="M56" s="136"/>
+      <c r="N56" s="136"/>
+      <c r="O56" s="136"/>
+      <c r="P56" s="136"/>
+      <c r="Q56" s="136"/>
+      <c r="R56" s="137"/>
     </row>
     <row r="57" spans="1:18">
-      <c r="A57" s="129"/>
-      <c r="B57" s="130"/>
-      <c r="C57" s="130"/>
-      <c r="D57" s="130"/>
-      <c r="E57" s="130"/>
-      <c r="F57" s="130"/>
-      <c r="G57" s="130"/>
-      <c r="H57" s="130"/>
-      <c r="I57" s="130"/>
-      <c r="J57" s="130"/>
-      <c r="K57" s="130"/>
-      <c r="L57" s="130"/>
-      <c r="M57" s="130"/>
-      <c r="N57" s="130"/>
-      <c r="O57" s="130"/>
-      <c r="P57" s="130"/>
-      <c r="Q57" s="130"/>
-      <c r="R57" s="131"/>
+      <c r="A57" s="135"/>
+      <c r="B57" s="136"/>
+      <c r="C57" s="136"/>
+      <c r="D57" s="136"/>
+      <c r="E57" s="136"/>
+      <c r="F57" s="136"/>
+      <c r="G57" s="136"/>
+      <c r="H57" s="136"/>
+      <c r="I57" s="136"/>
+      <c r="J57" s="136"/>
+      <c r="K57" s="136"/>
+      <c r="L57" s="136"/>
+      <c r="M57" s="136"/>
+      <c r="N57" s="136"/>
+      <c r="O57" s="136"/>
+      <c r="P57" s="136"/>
+      <c r="Q57" s="136"/>
+      <c r="R57" s="137"/>
     </row>
     <row r="58" spans="1:18">
-      <c r="A58" s="129"/>
-      <c r="B58" s="130"/>
-      <c r="C58" s="130"/>
-      <c r="D58" s="130"/>
-      <c r="E58" s="130"/>
-      <c r="F58" s="130"/>
-      <c r="G58" s="130"/>
-      <c r="H58" s="130"/>
-      <c r="I58" s="130"/>
-      <c r="J58" s="130"/>
-      <c r="K58" s="130"/>
-      <c r="L58" s="130"/>
-      <c r="M58" s="130"/>
-      <c r="N58" s="130"/>
-      <c r="O58" s="130"/>
-      <c r="P58" s="130"/>
-      <c r="Q58" s="130"/>
-      <c r="R58" s="131"/>
+      <c r="A58" s="135"/>
+      <c r="B58" s="136"/>
+      <c r="C58" s="136"/>
+      <c r="D58" s="136"/>
+      <c r="E58" s="136"/>
+      <c r="F58" s="136"/>
+      <c r="G58" s="136"/>
+      <c r="H58" s="136"/>
+      <c r="I58" s="136"/>
+      <c r="J58" s="136"/>
+      <c r="K58" s="136"/>
+      <c r="L58" s="136"/>
+      <c r="M58" s="136"/>
+      <c r="N58" s="136"/>
+      <c r="O58" s="136"/>
+      <c r="P58" s="136"/>
+      <c r="Q58" s="136"/>
+      <c r="R58" s="137"/>
     </row>
     <row r="59" spans="1:18">
-      <c r="A59" s="129"/>
-      <c r="B59" s="130"/>
-      <c r="C59" s="130"/>
-      <c r="D59" s="130"/>
-      <c r="E59" s="130"/>
-      <c r="F59" s="130"/>
-      <c r="G59" s="130"/>
-      <c r="H59" s="130"/>
-      <c r="I59" s="130"/>
-      <c r="J59" s="130"/>
-      <c r="K59" s="130"/>
-      <c r="L59" s="130"/>
-      <c r="M59" s="130"/>
-      <c r="N59" s="130"/>
-      <c r="O59" s="130"/>
-      <c r="P59" s="130"/>
-      <c r="Q59" s="130"/>
-      <c r="R59" s="131"/>
+      <c r="A59" s="135"/>
+      <c r="B59" s="136"/>
+      <c r="C59" s="136"/>
+      <c r="D59" s="136"/>
+      <c r="E59" s="136"/>
+      <c r="F59" s="136"/>
+      <c r="G59" s="136"/>
+      <c r="H59" s="136"/>
+      <c r="I59" s="136"/>
+      <c r="J59" s="136"/>
+      <c r="K59" s="136"/>
+      <c r="L59" s="136"/>
+      <c r="M59" s="136"/>
+      <c r="N59" s="136"/>
+      <c r="O59" s="136"/>
+      <c r="P59" s="136"/>
+      <c r="Q59" s="136"/>
+      <c r="R59" s="137"/>
     </row>
     <row r="60" spans="1:18" ht="15" thickBot="1">
-      <c r="A60" s="132"/>
-      <c r="B60" s="133"/>
-      <c r="C60" s="133"/>
-      <c r="D60" s="133"/>
-      <c r="E60" s="133"/>
-      <c r="F60" s="133"/>
-      <c r="G60" s="133"/>
-      <c r="H60" s="133"/>
-      <c r="I60" s="133"/>
-      <c r="J60" s="133"/>
-      <c r="K60" s="133"/>
-      <c r="L60" s="133"/>
-      <c r="M60" s="133"/>
-      <c r="N60" s="133"/>
-      <c r="O60" s="133"/>
-      <c r="P60" s="133"/>
-      <c r="Q60" s="133"/>
-      <c r="R60" s="134"/>
+      <c r="A60" s="138"/>
+      <c r="B60" s="139"/>
+      <c r="C60" s="139"/>
+      <c r="D60" s="139"/>
+      <c r="E60" s="139"/>
+      <c r="F60" s="139"/>
+      <c r="G60" s="139"/>
+      <c r="H60" s="139"/>
+      <c r="I60" s="139"/>
+      <c r="J60" s="139"/>
+      <c r="K60" s="139"/>
+      <c r="L60" s="139"/>
+      <c r="M60" s="139"/>
+      <c r="N60" s="139"/>
+      <c r="O60" s="139"/>
+      <c r="P60" s="139"/>
+      <c r="Q60" s="139"/>
+      <c r="R60" s="140"/>
     </row>
     <row r="61" spans="1:18" ht="17.25">
       <c r="A61" s="8"/>
-      <c r="B61" s="135" t="s">
+      <c r="B61" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="C61" s="135"/>
-      <c r="D61" s="135"/>
+      <c r="C61" s="141"/>
+      <c r="D61" s="141"/>
       <c r="E61" s="7"/>
       <c r="F61" s="19"/>
       <c r="G61" s="21"/>
@@ -3905,6 +3901,9 @@
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="O3:R3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:L4"/>
     <mergeCell ref="O4:P4"/>
@@ -3914,15 +3913,13 @@
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="O3:R3"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A23:R29"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A31:R54"/>
     <mergeCell ref="A55:R60"/>
     <mergeCell ref="B61:D61"/>
@@ -3936,17 +3933,16 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="M20:R20"/>
     <mergeCell ref="M21:R21"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A13:L13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="L5:L6"/>
+    <mergeCell ref="A23:R29"/>
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="M6:P6"/>
     <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3959,15 +3955,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE3B84B-725E-41C3-BD7B-FF65BC051E36}">
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:I7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:17" ht="24.75">
       <c r="A1" s="180" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B1" s="180"/>
       <c r="C1" s="180"/>
@@ -3991,19 +3987,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="19"/>
-      <c r="C2" s="206"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="192"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
-      <c r="I2" s="201" t="s">
+      <c r="I2" s="204" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="202"/>
+      <c r="J2" s="205"/>
       <c r="K2" s="182"/>
       <c r="L2" s="182"/>
-      <c r="M2" s="205"/>
-      <c r="N2" s="205"/>
+      <c r="M2" s="206"/>
+      <c r="N2" s="206"/>
       <c r="O2" s="72"/>
       <c r="P2" s="19"/>
       <c r="Q2" s="19"/>
@@ -4014,18 +4010,18 @@
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="203"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
-      <c r="I3" s="201" t="s">
+      <c r="I3" s="204" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="202"/>
+      <c r="J3" s="205"/>
       <c r="K3" s="182"/>
       <c r="L3" s="182"/>
       <c r="M3" s="182"/>
-      <c r="N3" s="205"/>
+      <c r="N3" s="206"/>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
@@ -4076,7 +4072,7 @@
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="193"/>
+      <c r="F6" s="190"/>
       <c r="G6" s="181"/>
       <c r="H6" s="181"/>
       <c r="I6" s="22"/>
@@ -4095,10 +4091,10 @@
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
-      <c r="F7" s="207"/>
-      <c r="G7" s="192"/>
-      <c r="H7" s="192"/>
-      <c r="I7" s="192"/>
+      <c r="F7" s="191"/>
+      <c r="G7" s="189"/>
+      <c r="H7" s="189"/>
+      <c r="I7" s="189"/>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
       <c r="L7" s="58"/>
@@ -4236,9 +4232,9 @@
       <c r="K14" s="64"/>
       <c r="L14" s="64"/>
       <c r="M14" s="27"/>
-      <c r="N14" s="194"/>
-      <c r="O14" s="168"/>
-      <c r="P14" s="177"/>
+      <c r="N14" s="192"/>
+      <c r="O14" s="174"/>
+      <c r="P14" s="173"/>
       <c r="Q14" s="22"/>
     </row>
     <row r="15" spans="1:17" ht="21.75" thickBot="1">
@@ -4282,19 +4278,19 @@
     <row r="17" spans="1:17" ht="21">
       <c r="A17" s="30"/>
       <c r="B17" s="31"/>
-      <c r="C17" s="22" t="s">
-        <v>29</v>
+      <c r="C17" s="36" t="s">
+        <v>42</v>
       </c>
       <c r="D17" s="32"/>
       <c r="E17" s="47"/>
-      <c r="F17" s="195"/>
-      <c r="G17" s="195"/>
-      <c r="H17" s="195"/>
-      <c r="I17" s="195"/>
-      <c r="J17" s="195"/>
-      <c r="K17" s="195"/>
-      <c r="L17" s="195"/>
-      <c r="M17" s="195"/>
+      <c r="F17" s="193"/>
+      <c r="G17" s="193"/>
+      <c r="H17" s="193"/>
+      <c r="I17" s="193"/>
+      <c r="J17" s="193"/>
+      <c r="K17" s="193"/>
+      <c r="L17" s="193"/>
+      <c r="M17" s="193"/>
       <c r="N17" s="22"/>
       <c r="O17" s="30"/>
       <c r="P17" s="79"/>
@@ -4303,19 +4299,19 @@
     <row r="18" spans="1:17" ht="18">
       <c r="A18" s="30"/>
       <c r="B18" s="22"/>
-      <c r="C18" s="33" t="s">
-        <v>30</v>
+      <c r="C18" s="36" t="s">
+        <v>43</v>
       </c>
       <c r="D18" s="33"/>
       <c r="E18" s="54"/>
-      <c r="F18" s="196"/>
-      <c r="G18" s="196"/>
-      <c r="H18" s="196"/>
-      <c r="I18" s="196"/>
-      <c r="J18" s="196"/>
-      <c r="K18" s="196"/>
-      <c r="L18" s="196"/>
-      <c r="M18" s="196"/>
+      <c r="F18" s="194"/>
+      <c r="G18" s="194"/>
+      <c r="H18" s="194"/>
+      <c r="I18" s="194"/>
+      <c r="J18" s="194"/>
+      <c r="K18" s="194"/>
+      <c r="L18" s="194"/>
+      <c r="M18" s="194"/>
       <c r="N18" s="33"/>
       <c r="O18" s="33"/>
       <c r="P18" s="79"/>
@@ -4410,9 +4406,9 @@
       <c r="J23" s="30"/>
       <c r="K23" s="35"/>
       <c r="L23" s="35"/>
-      <c r="M23" s="197"/>
-      <c r="N23" s="198"/>
-      <c r="O23" s="199"/>
+      <c r="M23" s="195"/>
+      <c r="N23" s="196"/>
+      <c r="O23" s="197"/>
       <c r="P23" s="30"/>
       <c r="Q23" s="30"/>
     </row>
@@ -4431,13 +4427,13 @@
       <c r="L24" s="35"/>
       <c r="M24" s="23"/>
       <c r="N24" s="23"/>
-      <c r="O24" s="186"/>
+      <c r="O24" s="198"/>
       <c r="P24" s="181"/>
       <c r="Q24" s="22"/>
     </row>
     <row r="25" spans="1:17" ht="21">
       <c r="A25" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -4582,7 +4578,7 @@
       <c r="I32" s="40"/>
       <c r="J32" s="69"/>
       <c r="K32" s="36"/>
-      <c r="L32" s="187"/>
+      <c r="L32" s="199"/>
       <c r="M32" s="68"/>
       <c r="N32" s="55"/>
       <c r="O32" s="55"/>
@@ -4601,7 +4597,7 @@
       <c r="I33" s="40"/>
       <c r="J33" s="69"/>
       <c r="K33" s="68"/>
-      <c r="L33" s="188"/>
+      <c r="L33" s="200"/>
       <c r="M33" s="68"/>
       <c r="N33" s="55"/>
       <c r="O33" s="55"/>
@@ -4620,7 +4616,7 @@
       <c r="I34" s="36"/>
       <c r="J34" s="36"/>
       <c r="K34" s="41"/>
-      <c r="L34" s="188"/>
+      <c r="L34" s="200"/>
       <c r="M34" s="68"/>
       <c r="N34" s="55"/>
       <c r="O34" s="55"/>
@@ -4688,18 +4684,18 @@
       <c r="A38" s="22"/>
       <c r="B38" s="22"/>
       <c r="C38" s="36" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D38" s="41"/>
       <c r="E38" s="36"/>
-      <c r="F38" s="189"/>
-      <c r="G38" s="189"/>
-      <c r="H38" s="189"/>
-      <c r="I38" s="189"/>
-      <c r="J38" s="189"/>
-      <c r="K38" s="189"/>
-      <c r="L38" s="189"/>
-      <c r="M38" s="189"/>
+      <c r="F38" s="201"/>
+      <c r="G38" s="201"/>
+      <c r="H38" s="201"/>
+      <c r="I38" s="201"/>
+      <c r="J38" s="201"/>
+      <c r="K38" s="201"/>
+      <c r="L38" s="201"/>
+      <c r="M38" s="201"/>
       <c r="N38" s="55"/>
       <c r="O38" s="36"/>
       <c r="P38" s="53"/>
@@ -4709,18 +4705,18 @@
       <c r="A39" s="22"/>
       <c r="B39" s="22"/>
       <c r="C39" s="36" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D39" s="37"/>
       <c r="E39" s="37"/>
-      <c r="F39" s="189"/>
-      <c r="G39" s="189"/>
-      <c r="H39" s="189"/>
-      <c r="I39" s="189"/>
-      <c r="J39" s="189"/>
-      <c r="K39" s="189"/>
-      <c r="L39" s="189"/>
-      <c r="M39" s="189"/>
+      <c r="F39" s="201"/>
+      <c r="G39" s="201"/>
+      <c r="H39" s="201"/>
+      <c r="I39" s="201"/>
+      <c r="J39" s="201"/>
+      <c r="K39" s="201"/>
+      <c r="L39" s="201"/>
+      <c r="M39" s="201"/>
       <c r="N39" s="37"/>
       <c r="O39" s="37"/>
       <c r="P39" s="53"/>
@@ -4765,8 +4761,8 @@
       <c r="Q41" s="22"/>
     </row>
     <row r="42" spans="1:17" ht="21">
-      <c r="A42" s="190" t="s">
-        <v>34</v>
+      <c r="A42" s="202" t="s">
+        <v>30</v>
       </c>
       <c r="B42" s="181"/>
       <c r="C42" s="181"/>
@@ -4786,25 +4782,25 @@
       <c r="Q42" s="181"/>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="191" t="s">
-        <v>35</v>
+      <c r="A43" s="188" t="s">
+        <v>31</v>
       </c>
-      <c r="B43" s="192"/>
-      <c r="C43" s="192"/>
-      <c r="D43" s="192"/>
-      <c r="E43" s="192"/>
-      <c r="F43" s="192"/>
-      <c r="G43" s="192"/>
-      <c r="H43" s="192"/>
-      <c r="I43" s="192"/>
-      <c r="J43" s="192"/>
-      <c r="K43" s="192"/>
-      <c r="L43" s="192"/>
-      <c r="M43" s="192"/>
-      <c r="N43" s="192"/>
-      <c r="O43" s="192"/>
-      <c r="P43" s="192"/>
-      <c r="Q43" s="192"/>
+      <c r="B43" s="189"/>
+      <c r="C43" s="189"/>
+      <c r="D43" s="189"/>
+      <c r="E43" s="189"/>
+      <c r="F43" s="189"/>
+      <c r="G43" s="189"/>
+      <c r="H43" s="189"/>
+      <c r="I43" s="189"/>
+      <c r="J43" s="189"/>
+      <c r="K43" s="189"/>
+      <c r="L43" s="189"/>
+      <c r="M43" s="189"/>
+      <c r="N43" s="189"/>
+      <c r="O43" s="189"/>
+      <c r="P43" s="189"/>
+      <c r="Q43" s="189"/>
     </row>
     <row r="44" spans="1:17" ht="17.25">
       <c r="A44" s="45"/>
@@ -4888,7 +4884,7 @@
     <row r="1" spans="1:6" ht="24.75">
       <c r="A1" s="7"/>
       <c r="B1" s="180" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C1" s="180"/>
       <c r="D1" s="180"/>
@@ -4898,31 +4894,31 @@
     <row r="2" spans="1:6" ht="17.25">
       <c r="A2" s="7"/>
       <c r="B2" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
-      <c r="E2" s="204"/>
-      <c r="F2" s="204"/>
+      <c r="E2" s="208"/>
+      <c r="F2" s="208"/>
     </row>
     <row r="3" spans="1:6" ht="17.25">
       <c r="A3" s="7"/>
       <c r="B3" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25">
@@ -5054,8 +5050,8 @@
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" ht="17.25">
-      <c r="A20" s="200" t="s">
-        <v>43</v>
+      <c r="A20" s="209" t="s">
+        <v>39</v>
       </c>
       <c r="B20" s="181"/>
       <c r="C20" s="181"/>
@@ -5106,7 +5102,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24.75">
-      <c r="A1" s="208"/>
+      <c r="A1" s="116"/>
       <c r="B1" s="112"/>
       <c r="C1" s="112"/>
       <c r="D1" s="112"/>
@@ -5122,7 +5118,7 @@
       <c r="N1" s="112"/>
       <c r="O1" s="112"/>
       <c r="P1" s="112"/>
-      <c r="Q1" s="208"/>
+      <c r="Q1" s="116"/>
       <c r="R1" s="112"/>
       <c r="S1" s="5"/>
     </row>

--- a/template/product3all.xlsx
+++ b/template/product3all.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10123"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\home\soft\git\highablePrint\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/highablePrint/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755F3231-8ECE-4CC8-BD5A-A376BB157DCC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AD91AD-AA38-B345-93AF-792A3F15402E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="1425" windowWidth="25425" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1420" yWindow="1420" windowWidth="25420" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="制单" sheetId="5" r:id="rId1"/>
@@ -194,35 +194,41 @@
     <font>
       <sz val="12"/>
       <name val="Microsoft YaHei"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <name val="Microsoft YaHei"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="SimSun"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Microsoft YaHei"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Microsoft YaHei"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <name val="Microsoft YaHei"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -230,6 +236,7 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Microsoft YaHei"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -237,6 +244,7 @@
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Microsoft YaHei"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -244,6 +252,7 @@
       <sz val="12"/>
       <color rgb="FF333300"/>
       <name val="Microsoft YaHei"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -251,30 +260,35 @@
       <sz val="16"/>
       <color rgb="FF333300"/>
       <name val="Microsoft YaHei"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <name val="Microsoft YaHei"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Microsoft YaHei"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="6"/>
       <name val="Microsoft YaHei"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <name val="Microsoft YaHei"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -282,6 +296,7 @@
       <i/>
       <sz val="12"/>
       <name val="Microsoft YaHei"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -289,23 +304,27 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Microsoft YaHei"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Microsoft YaHei"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -313,12 +332,14 @@
       <u/>
       <sz val="14"/>
       <name val="Microsoft YaHei"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <name val="Microsoft YaHei"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -326,17 +347,20 @@
       <u/>
       <sz val="12"/>
       <name val="Microsoft YaHei"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="SimSun"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1147,35 +1171,165 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1190,149 +1344,34 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="26" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1365,21 +1404,6 @@
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1427,7 +1451,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="28575" y="1038225"/>
+          <a:off x="28575" y="1079500"/>
           <a:ext cx="933450" cy="533400"/>
           <a:chOff x="4884038" y="3513300"/>
           <a:chExt cx="923925" cy="533400"/>
@@ -1488,7 +1512,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="19050" y="1038225"/>
+          <a:off x="19050" y="1079500"/>
           <a:ext cx="1990725" cy="342900"/>
           <a:chOff x="4355400" y="3608550"/>
           <a:chExt cx="1981200" cy="342900"/>
@@ -2612,164 +2636,164 @@
   <dimension ref="A1:R61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="24.75">
-      <c r="A1" s="180" t="s">
+    <row r="1" spans="1:18" ht="26">
+      <c r="A1" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
-      <c r="F1" s="181"/>
-      <c r="G1" s="181"/>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="181"/>
-      <c r="K1" s="181"/>
-      <c r="L1" s="181"/>
-      <c r="M1" s="181"/>
-      <c r="N1" s="181"/>
-      <c r="O1" s="181"/>
-      <c r="P1" s="181"/>
-      <c r="Q1" s="180"/>
-      <c r="R1" s="181"/>
-    </row>
-    <row r="2" spans="1:18" ht="17.25">
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="120"/>
+    </row>
+    <row r="2" spans="1:18" ht="18">
       <c r="A2" s="57" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="113"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
       <c r="E2" s="57" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="57"/>
-      <c r="G2" s="182"/>
-      <c r="H2" s="182"/>
-      <c r="I2" s="182"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
       <c r="J2" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="183"/>
-      <c r="M2" s="183"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
       <c r="N2" s="72"/>
-      <c r="O2" s="184" t="s">
+      <c r="O2" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="185"/>
-      <c r="R2" s="185"/>
-    </row>
-    <row r="3" spans="1:18" ht="18" thickBot="1">
+      <c r="P2" s="123"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="124"/>
+    </row>
+    <row r="3" spans="1:18" ht="19" thickBot="1">
       <c r="A3" s="57" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="117"/>
-      <c r="C3" s="179"/>
-      <c r="D3" s="179"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
       <c r="E3" s="57" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="57"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="186"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
       <c r="J3" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="187"/>
-      <c r="M3" s="187"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
       <c r="N3" s="57"/>
-      <c r="O3" s="148"/>
-      <c r="P3" s="174"/>
-      <c r="Q3" s="174"/>
-      <c r="R3" s="174"/>
-    </row>
-    <row r="4" spans="1:18" ht="21.75" thickBot="1">
-      <c r="A4" s="165" t="s">
+      <c r="O3" s="127"/>
+      <c r="P3" s="128"/>
+      <c r="Q3" s="128"/>
+      <c r="R3" s="128"/>
+    </row>
+    <row r="4" spans="1:18" ht="22" thickBot="1">
+      <c r="A4" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="166"/>
-      <c r="C4" s="166"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="166"/>
-      <c r="F4" s="166"/>
-      <c r="G4" s="168"/>
-      <c r="H4" s="168"/>
-      <c r="I4" s="168"/>
-      <c r="J4" s="166"/>
-      <c r="K4" s="166"/>
-      <c r="L4" s="168"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="132"/>
       <c r="M4" s="26" t="s">
         <v>9</v>
       </c>
       <c r="N4" s="105"/>
-      <c r="O4" s="169"/>
-      <c r="P4" s="169"/>
-      <c r="Q4" s="170"/>
-      <c r="R4" s="171"/>
-    </row>
-    <row r="5" spans="1:18" ht="19.5">
-      <c r="A5" s="175" t="s">
+      <c r="O4" s="133"/>
+      <c r="P4" s="133"/>
+      <c r="Q4" s="134"/>
+      <c r="R4" s="135"/>
+    </row>
+    <row r="5" spans="1:18" ht="19">
+      <c r="A5" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="176"/>
+      <c r="B5" s="139"/>
       <c r="C5" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="177"/>
-      <c r="E5" s="177"/>
-      <c r="F5" s="177"/>
-      <c r="G5" s="177"/>
-      <c r="H5" s="177"/>
-      <c r="I5" s="177"/>
-      <c r="J5" s="177"/>
-      <c r="K5" s="177"/>
-      <c r="L5" s="130" t="s">
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="140"/>
+      <c r="L5" s="180" t="s">
         <v>12</v>
       </c>
       <c r="M5" s="26" t="s">
         <v>13</v>
       </c>
       <c r="N5" s="106"/>
-      <c r="O5" s="118"/>
-      <c r="P5" s="118"/>
-      <c r="Q5" s="172"/>
-      <c r="R5" s="173"/>
-    </row>
-    <row r="6" spans="1:18" ht="18" thickBot="1">
-      <c r="A6" s="119" t="s">
+      <c r="O5" s="185"/>
+      <c r="P5" s="185"/>
+      <c r="Q5" s="136"/>
+      <c r="R5" s="137"/>
+    </row>
+    <row r="6" spans="1:18" ht="19" thickBot="1">
+      <c r="A6" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="120"/>
+      <c r="B6" s="177"/>
       <c r="C6" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
-      <c r="J6" s="178"/>
-      <c r="K6" s="178"/>
-      <c r="L6" s="131"/>
-      <c r="M6" s="121"/>
-      <c r="N6" s="122"/>
-      <c r="O6" s="122"/>
-      <c r="P6" s="123"/>
-      <c r="Q6" s="172"/>
-      <c r="R6" s="173"/>
-    </row>
-    <row r="7" spans="1:18" ht="18.75" thickBot="1">
-      <c r="A7" s="124"/>
-      <c r="B7" s="125"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="141"/>
+      <c r="K6" s="141"/>
+      <c r="L6" s="181"/>
+      <c r="M6" s="178"/>
+      <c r="N6" s="186"/>
+      <c r="O6" s="186"/>
+      <c r="P6" s="187"/>
+      <c r="Q6" s="136"/>
+      <c r="R6" s="137"/>
+    </row>
+    <row r="7" spans="1:18" ht="19" thickBot="1">
+      <c r="A7" s="142"/>
+      <c r="B7" s="143"/>
       <c r="C7" s="82"/>
       <c r="D7" s="83"/>
       <c r="E7" s="83"/>
@@ -2784,12 +2808,12 @@
       <c r="N7" s="72"/>
       <c r="O7" s="72"/>
       <c r="P7" s="72"/>
-      <c r="Q7" s="172"/>
-      <c r="R7" s="173"/>
-    </row>
-    <row r="8" spans="1:18" ht="18.75" thickBot="1">
-      <c r="A8" s="124"/>
-      <c r="B8" s="125"/>
+      <c r="Q7" s="136"/>
+      <c r="R7" s="137"/>
+    </row>
+    <row r="8" spans="1:18" ht="19" thickBot="1">
+      <c r="A8" s="142"/>
+      <c r="B8" s="143"/>
       <c r="C8" s="82"/>
       <c r="D8" s="83"/>
       <c r="E8" s="83"/>
@@ -2804,12 +2828,12 @@
       <c r="N8" s="72"/>
       <c r="O8" s="72"/>
       <c r="P8" s="72"/>
-      <c r="Q8" s="172"/>
-      <c r="R8" s="173"/>
-    </row>
-    <row r="9" spans="1:18" ht="18.75" thickBot="1">
-      <c r="A9" s="124"/>
-      <c r="B9" s="125"/>
+      <c r="Q8" s="136"/>
+      <c r="R8" s="137"/>
+    </row>
+    <row r="9" spans="1:18" ht="19" thickBot="1">
+      <c r="A9" s="142"/>
+      <c r="B9" s="143"/>
       <c r="C9" s="82"/>
       <c r="D9" s="83"/>
       <c r="E9" s="83"/>
@@ -2824,12 +2848,12 @@
       <c r="N9" s="72"/>
       <c r="O9" s="72"/>
       <c r="P9" s="72"/>
-      <c r="Q9" s="172"/>
-      <c r="R9" s="173"/>
-    </row>
-    <row r="10" spans="1:18" ht="18.75" thickBot="1">
-      <c r="A10" s="124"/>
-      <c r="B10" s="125"/>
+      <c r="Q9" s="136"/>
+      <c r="R9" s="137"/>
+    </row>
+    <row r="10" spans="1:18" ht="19" thickBot="1">
+      <c r="A10" s="142"/>
+      <c r="B10" s="143"/>
       <c r="C10" s="82"/>
       <c r="D10" s="83"/>
       <c r="E10" s="83"/>
@@ -2844,12 +2868,12 @@
       <c r="N10" s="72"/>
       <c r="O10" s="72"/>
       <c r="P10" s="72"/>
-      <c r="Q10" s="172"/>
-      <c r="R10" s="173"/>
-    </row>
-    <row r="11" spans="1:18" ht="18.75" thickBot="1">
-      <c r="A11" s="124"/>
-      <c r="B11" s="125"/>
+      <c r="Q10" s="136"/>
+      <c r="R10" s="137"/>
+    </row>
+    <row r="11" spans="1:18" ht="19" thickBot="1">
+      <c r="A11" s="142"/>
+      <c r="B11" s="143"/>
       <c r="C11" s="82"/>
       <c r="D11" s="83"/>
       <c r="E11" s="83"/>
@@ -2864,15 +2888,15 @@
       <c r="N11" s="72"/>
       <c r="O11" s="72"/>
       <c r="P11" s="72"/>
-      <c r="Q11" s="172"/>
-      <c r="R11" s="173"/>
+      <c r="Q11" s="136"/>
+      <c r="R11" s="137"/>
     </row>
     <row r="12" spans="1:18" ht="18">
-      <c r="A12" s="126" t="s">
+      <c r="A12" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="127"/>
-      <c r="C12" s="127"/>
+      <c r="B12" s="175"/>
+      <c r="C12" s="175"/>
       <c r="D12" s="84"/>
       <c r="E12" s="84"/>
       <c r="F12" s="84"/>
@@ -2886,34 +2910,34 @@
       <c r="N12" s="108"/>
       <c r="O12" s="108"/>
       <c r="P12" s="108"/>
-      <c r="Q12" s="172"/>
-      <c r="R12" s="173"/>
+      <c r="Q12" s="136"/>
+      <c r="R12" s="137"/>
     </row>
     <row r="13" spans="1:18" ht="18">
-      <c r="A13" s="128" t="s">
+      <c r="A13" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="127"/>
-      <c r="C13" s="127"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="127"/>
-      <c r="F13" s="127"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="127"/>
-      <c r="J13" s="127"/>
-      <c r="K13" s="120"/>
-      <c r="L13" s="127"/>
+      <c r="B13" s="175"/>
+      <c r="C13" s="175"/>
+      <c r="D13" s="175"/>
+      <c r="E13" s="175"/>
+      <c r="F13" s="175"/>
+      <c r="G13" s="175"/>
+      <c r="H13" s="175"/>
+      <c r="I13" s="175"/>
+      <c r="J13" s="175"/>
+      <c r="K13" s="177"/>
+      <c r="L13" s="175"/>
       <c r="M13" s="109"/>
       <c r="N13" s="110"/>
       <c r="O13" s="110"/>
       <c r="P13" s="110"/>
-      <c r="Q13" s="172"/>
-      <c r="R13" s="173"/>
-    </row>
-    <row r="14" spans="1:18" ht="18.75" thickBot="1">
-      <c r="A14" s="121"/>
-      <c r="B14" s="129"/>
+      <c r="Q13" s="136"/>
+      <c r="R13" s="137"/>
+    </row>
+    <row r="14" spans="1:18" ht="19" thickBot="1">
+      <c r="A14" s="178"/>
+      <c r="B14" s="179"/>
       <c r="C14" s="85"/>
       <c r="D14" s="86"/>
       <c r="E14" s="86"/>
@@ -2928,76 +2952,76 @@
       <c r="N14" s="110"/>
       <c r="O14" s="110"/>
       <c r="P14" s="110"/>
-      <c r="Q14" s="174"/>
-      <c r="R14" s="173"/>
-    </row>
-    <row r="15" spans="1:18" ht="18.75" thickBot="1">
-      <c r="A15" s="142" t="s">
+      <c r="Q14" s="128"/>
+      <c r="R14" s="137"/>
+    </row>
+    <row r="15" spans="1:18" ht="19" thickBot="1">
+      <c r="A15" s="151" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="142"/>
-      <c r="C15" s="156"/>
-      <c r="D15" s="158"/>
-      <c r="E15" s="156"/>
-      <c r="F15" s="157"/>
-      <c r="G15" s="157"/>
-      <c r="H15" s="157"/>
-      <c r="I15" s="157"/>
-      <c r="J15" s="157"/>
-      <c r="K15" s="157"/>
-      <c r="L15" s="157"/>
-      <c r="M15" s="143" t="s">
+      <c r="B15" s="151"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="167"/>
+      <c r="E15" s="165"/>
+      <c r="F15" s="166"/>
+      <c r="G15" s="166"/>
+      <c r="H15" s="166"/>
+      <c r="I15" s="166"/>
+      <c r="J15" s="166"/>
+      <c r="K15" s="166"/>
+      <c r="L15" s="166"/>
+      <c r="M15" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="N15" s="144"/>
-      <c r="O15" s="144"/>
-      <c r="P15" s="144"/>
-      <c r="Q15" s="144"/>
-      <c r="R15" s="145"/>
-    </row>
-    <row r="16" spans="1:18" ht="18" thickBot="1">
-      <c r="A16" s="119" t="s">
+      <c r="N15" s="153"/>
+      <c r="O15" s="153"/>
+      <c r="P15" s="153"/>
+      <c r="Q15" s="153"/>
+      <c r="R15" s="154"/>
+    </row>
+    <row r="16" spans="1:18" ht="19" thickBot="1">
+      <c r="A16" s="155" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="146"/>
-      <c r="C16" s="146"/>
-      <c r="D16" s="146"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="146"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="146"/>
-      <c r="K16" s="146"/>
+      <c r="B16" s="156"/>
+      <c r="C16" s="156"/>
+      <c r="D16" s="156"/>
+      <c r="E16" s="156"/>
+      <c r="F16" s="156"/>
+      <c r="G16" s="156"/>
+      <c r="H16" s="156"/>
+      <c r="I16" s="156"/>
+      <c r="J16" s="156"/>
+      <c r="K16" s="156"/>
       <c r="L16" s="101"/>
-      <c r="M16" s="147"/>
-      <c r="N16" s="148"/>
-      <c r="O16" s="148"/>
-      <c r="P16" s="148"/>
-      <c r="Q16" s="148"/>
-      <c r="R16" s="149"/>
-    </row>
-    <row r="17" spans="1:18" ht="17.25">
-      <c r="A17" s="119" t="s">
+      <c r="M16" s="157"/>
+      <c r="N16" s="127"/>
+      <c r="O16" s="127"/>
+      <c r="P16" s="127"/>
+      <c r="Q16" s="127"/>
+      <c r="R16" s="158"/>
+    </row>
+    <row r="17" spans="1:18" ht="18">
+      <c r="A17" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="146"/>
-      <c r="C17" s="146"/>
-      <c r="D17" s="146"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="146"/>
-      <c r="H17" s="146"/>
-      <c r="I17" s="146"/>
-      <c r="J17" s="146"/>
-      <c r="K17" s="146"/>
+      <c r="B17" s="156"/>
+      <c r="C17" s="156"/>
+      <c r="D17" s="156"/>
+      <c r="E17" s="156"/>
+      <c r="F17" s="156"/>
+      <c r="G17" s="156"/>
+      <c r="H17" s="156"/>
+      <c r="I17" s="156"/>
+      <c r="J17" s="156"/>
+      <c r="K17" s="156"/>
       <c r="L17" s="101"/>
-      <c r="M17" s="150"/>
-      <c r="N17" s="151"/>
-      <c r="O17" s="151"/>
-      <c r="P17" s="151"/>
-      <c r="Q17" s="151"/>
-      <c r="R17" s="152"/>
+      <c r="M17" s="159"/>
+      <c r="N17" s="160"/>
+      <c r="O17" s="160"/>
+      <c r="P17" s="160"/>
+      <c r="Q17" s="160"/>
+      <c r="R17" s="161"/>
     </row>
     <row r="18" spans="1:18" ht="18">
       <c r="A18" s="87" t="s">
@@ -3014,12 +3038,12 @@
       <c r="J18" s="88"/>
       <c r="K18" s="88"/>
       <c r="L18" s="102"/>
-      <c r="M18" s="153"/>
-      <c r="N18" s="154"/>
-      <c r="O18" s="154"/>
-      <c r="P18" s="154"/>
-      <c r="Q18" s="154"/>
-      <c r="R18" s="155"/>
+      <c r="M18" s="162"/>
+      <c r="N18" s="163"/>
+      <c r="O18" s="163"/>
+      <c r="P18" s="163"/>
+      <c r="Q18" s="163"/>
+      <c r="R18" s="164"/>
     </row>
     <row r="19" spans="1:18" ht="18">
       <c r="A19" s="87"/>
@@ -3034,14 +3058,14 @@
       <c r="J19" s="90"/>
       <c r="K19" s="90"/>
       <c r="L19" s="103"/>
-      <c r="M19" s="153"/>
-      <c r="N19" s="154"/>
-      <c r="O19" s="154"/>
-      <c r="P19" s="154"/>
-      <c r="Q19" s="154"/>
-      <c r="R19" s="155"/>
-    </row>
-    <row r="20" spans="1:18" ht="18.75" thickBot="1">
+      <c r="M19" s="162"/>
+      <c r="N19" s="163"/>
+      <c r="O19" s="163"/>
+      <c r="P19" s="163"/>
+      <c r="Q19" s="163"/>
+      <c r="R19" s="164"/>
+    </row>
+    <row r="20" spans="1:18" ht="19" thickBot="1">
       <c r="A20" s="92"/>
       <c r="B20" s="93"/>
       <c r="C20" s="93"/>
@@ -3054,14 +3078,14 @@
       <c r="J20" s="96"/>
       <c r="K20" s="96"/>
       <c r="L20" s="104"/>
-      <c r="M20" s="159"/>
-      <c r="N20" s="160"/>
-      <c r="O20" s="160"/>
-      <c r="P20" s="160"/>
-      <c r="Q20" s="160"/>
-      <c r="R20" s="161"/>
-    </row>
-    <row r="21" spans="1:18" ht="18.75" thickBot="1">
+      <c r="M20" s="168"/>
+      <c r="N20" s="169"/>
+      <c r="O20" s="169"/>
+      <c r="P20" s="169"/>
+      <c r="Q20" s="169"/>
+      <c r="R20" s="170"/>
+    </row>
+    <row r="21" spans="1:18" ht="19" thickBot="1">
       <c r="A21" s="92"/>
       <c r="B21" s="93"/>
       <c r="C21" s="93"/>
@@ -3074,14 +3098,14 @@
       <c r="J21" s="93"/>
       <c r="K21" s="93"/>
       <c r="L21" s="104"/>
-      <c r="M21" s="162" t="s">
+      <c r="M21" s="171" t="s">
         <v>23</v>
       </c>
-      <c r="N21" s="163"/>
-      <c r="O21" s="163"/>
-      <c r="P21" s="163"/>
-      <c r="Q21" s="163"/>
-      <c r="R21" s="164"/>
+      <c r="N21" s="172"/>
+      <c r="O21" s="172"/>
+      <c r="P21" s="172"/>
+      <c r="Q21" s="172"/>
+      <c r="R21" s="173"/>
     </row>
     <row r="22" spans="1:18" ht="18">
       <c r="A22" s="24" t="s">
@@ -3106,144 +3130,144 @@
       <c r="R22" s="73"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="132"/>
-      <c r="B23" s="133"/>
-      <c r="C23" s="133"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="133"/>
-      <c r="F23" s="133"/>
-      <c r="G23" s="133"/>
-      <c r="H23" s="133"/>
-      <c r="I23" s="133"/>
-      <c r="J23" s="133"/>
-      <c r="K23" s="133"/>
-      <c r="L23" s="133"/>
-      <c r="M23" s="133"/>
-      <c r="N23" s="133"/>
-      <c r="O23" s="133"/>
-      <c r="P23" s="133"/>
-      <c r="Q23" s="133"/>
-      <c r="R23" s="134"/>
+      <c r="A23" s="182"/>
+      <c r="B23" s="183"/>
+      <c r="C23" s="183"/>
+      <c r="D23" s="183"/>
+      <c r="E23" s="183"/>
+      <c r="F23" s="183"/>
+      <c r="G23" s="183"/>
+      <c r="H23" s="183"/>
+      <c r="I23" s="183"/>
+      <c r="J23" s="183"/>
+      <c r="K23" s="183"/>
+      <c r="L23" s="183"/>
+      <c r="M23" s="183"/>
+      <c r="N23" s="183"/>
+      <c r="O23" s="183"/>
+      <c r="P23" s="183"/>
+      <c r="Q23" s="183"/>
+      <c r="R23" s="184"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="132"/>
-      <c r="B24" s="133"/>
-      <c r="C24" s="133"/>
-      <c r="D24" s="133"/>
-      <c r="E24" s="133"/>
-      <c r="F24" s="133"/>
-      <c r="G24" s="133"/>
-      <c r="H24" s="133"/>
-      <c r="I24" s="133"/>
-      <c r="J24" s="133"/>
-      <c r="K24" s="133"/>
-      <c r="L24" s="133"/>
-      <c r="M24" s="133"/>
-      <c r="N24" s="133"/>
-      <c r="O24" s="133"/>
-      <c r="P24" s="133"/>
-      <c r="Q24" s="133"/>
-      <c r="R24" s="134"/>
+      <c r="A24" s="182"/>
+      <c r="B24" s="183"/>
+      <c r="C24" s="183"/>
+      <c r="D24" s="183"/>
+      <c r="E24" s="183"/>
+      <c r="F24" s="183"/>
+      <c r="G24" s="183"/>
+      <c r="H24" s="183"/>
+      <c r="I24" s="183"/>
+      <c r="J24" s="183"/>
+      <c r="K24" s="183"/>
+      <c r="L24" s="183"/>
+      <c r="M24" s="183"/>
+      <c r="N24" s="183"/>
+      <c r="O24" s="183"/>
+      <c r="P24" s="183"/>
+      <c r="Q24" s="183"/>
+      <c r="R24" s="184"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="132"/>
-      <c r="B25" s="133"/>
-      <c r="C25" s="133"/>
-      <c r="D25" s="133"/>
-      <c r="E25" s="133"/>
-      <c r="F25" s="133"/>
-      <c r="G25" s="133"/>
-      <c r="H25" s="133"/>
-      <c r="I25" s="133"/>
-      <c r="J25" s="133"/>
-      <c r="K25" s="133"/>
-      <c r="L25" s="133"/>
-      <c r="M25" s="133"/>
-      <c r="N25" s="133"/>
-      <c r="O25" s="133"/>
-      <c r="P25" s="133"/>
-      <c r="Q25" s="133"/>
-      <c r="R25" s="134"/>
+      <c r="A25" s="182"/>
+      <c r="B25" s="183"/>
+      <c r="C25" s="183"/>
+      <c r="D25" s="183"/>
+      <c r="E25" s="183"/>
+      <c r="F25" s="183"/>
+      <c r="G25" s="183"/>
+      <c r="H25" s="183"/>
+      <c r="I25" s="183"/>
+      <c r="J25" s="183"/>
+      <c r="K25" s="183"/>
+      <c r="L25" s="183"/>
+      <c r="M25" s="183"/>
+      <c r="N25" s="183"/>
+      <c r="O25" s="183"/>
+      <c r="P25" s="183"/>
+      <c r="Q25" s="183"/>
+      <c r="R25" s="184"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="132"/>
-      <c r="B26" s="133"/>
-      <c r="C26" s="133"/>
-      <c r="D26" s="133"/>
-      <c r="E26" s="133"/>
-      <c r="F26" s="133"/>
-      <c r="G26" s="133"/>
-      <c r="H26" s="133"/>
-      <c r="I26" s="133"/>
-      <c r="J26" s="133"/>
-      <c r="K26" s="133"/>
-      <c r="L26" s="133"/>
-      <c r="M26" s="133"/>
-      <c r="N26" s="133"/>
-      <c r="O26" s="133"/>
-      <c r="P26" s="133"/>
-      <c r="Q26" s="133"/>
-      <c r="R26" s="134"/>
+      <c r="A26" s="182"/>
+      <c r="B26" s="183"/>
+      <c r="C26" s="183"/>
+      <c r="D26" s="183"/>
+      <c r="E26" s="183"/>
+      <c r="F26" s="183"/>
+      <c r="G26" s="183"/>
+      <c r="H26" s="183"/>
+      <c r="I26" s="183"/>
+      <c r="J26" s="183"/>
+      <c r="K26" s="183"/>
+      <c r="L26" s="183"/>
+      <c r="M26" s="183"/>
+      <c r="N26" s="183"/>
+      <c r="O26" s="183"/>
+      <c r="P26" s="183"/>
+      <c r="Q26" s="183"/>
+      <c r="R26" s="184"/>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="132"/>
-      <c r="B27" s="133"/>
-      <c r="C27" s="133"/>
-      <c r="D27" s="133"/>
-      <c r="E27" s="133"/>
-      <c r="F27" s="133"/>
-      <c r="G27" s="133"/>
-      <c r="H27" s="133"/>
-      <c r="I27" s="133"/>
-      <c r="J27" s="133"/>
-      <c r="K27" s="133"/>
-      <c r="L27" s="133"/>
-      <c r="M27" s="133"/>
-      <c r="N27" s="133"/>
-      <c r="O27" s="133"/>
-      <c r="P27" s="133"/>
-      <c r="Q27" s="133"/>
-      <c r="R27" s="134"/>
+      <c r="A27" s="182"/>
+      <c r="B27" s="183"/>
+      <c r="C27" s="183"/>
+      <c r="D27" s="183"/>
+      <c r="E27" s="183"/>
+      <c r="F27" s="183"/>
+      <c r="G27" s="183"/>
+      <c r="H27" s="183"/>
+      <c r="I27" s="183"/>
+      <c r="J27" s="183"/>
+      <c r="K27" s="183"/>
+      <c r="L27" s="183"/>
+      <c r="M27" s="183"/>
+      <c r="N27" s="183"/>
+      <c r="O27" s="183"/>
+      <c r="P27" s="183"/>
+      <c r="Q27" s="183"/>
+      <c r="R27" s="184"/>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="132"/>
-      <c r="B28" s="133"/>
-      <c r="C28" s="133"/>
-      <c r="D28" s="133"/>
-      <c r="E28" s="133"/>
-      <c r="F28" s="133"/>
-      <c r="G28" s="133"/>
-      <c r="H28" s="133"/>
-      <c r="I28" s="133"/>
-      <c r="J28" s="133"/>
-      <c r="K28" s="133"/>
-      <c r="L28" s="133"/>
-      <c r="M28" s="133"/>
-      <c r="N28" s="133"/>
-      <c r="O28" s="133"/>
-      <c r="P28" s="133"/>
-      <c r="Q28" s="133"/>
-      <c r="R28" s="134"/>
+      <c r="A28" s="182"/>
+      <c r="B28" s="183"/>
+      <c r="C28" s="183"/>
+      <c r="D28" s="183"/>
+      <c r="E28" s="183"/>
+      <c r="F28" s="183"/>
+      <c r="G28" s="183"/>
+      <c r="H28" s="183"/>
+      <c r="I28" s="183"/>
+      <c r="J28" s="183"/>
+      <c r="K28" s="183"/>
+      <c r="L28" s="183"/>
+      <c r="M28" s="183"/>
+      <c r="N28" s="183"/>
+      <c r="O28" s="183"/>
+      <c r="P28" s="183"/>
+      <c r="Q28" s="183"/>
+      <c r="R28" s="184"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="132"/>
-      <c r="B29" s="133"/>
-      <c r="C29" s="133"/>
-      <c r="D29" s="133"/>
-      <c r="E29" s="133"/>
-      <c r="F29" s="133"/>
-      <c r="G29" s="133"/>
-      <c r="H29" s="133"/>
-      <c r="I29" s="133"/>
-      <c r="J29" s="133"/>
-      <c r="K29" s="133"/>
-      <c r="L29" s="133"/>
-      <c r="M29" s="133"/>
-      <c r="N29" s="133"/>
-      <c r="O29" s="133"/>
-      <c r="P29" s="133"/>
-      <c r="Q29" s="133"/>
-      <c r="R29" s="134"/>
+      <c r="A29" s="182"/>
+      <c r="B29" s="183"/>
+      <c r="C29" s="183"/>
+      <c r="D29" s="183"/>
+      <c r="E29" s="183"/>
+      <c r="F29" s="183"/>
+      <c r="G29" s="183"/>
+      <c r="H29" s="183"/>
+      <c r="I29" s="183"/>
+      <c r="J29" s="183"/>
+      <c r="K29" s="183"/>
+      <c r="L29" s="183"/>
+      <c r="M29" s="183"/>
+      <c r="N29" s="183"/>
+      <c r="O29" s="183"/>
+      <c r="P29" s="183"/>
+      <c r="Q29" s="183"/>
+      <c r="R29" s="184"/>
     </row>
     <row r="30" spans="1:18" ht="21">
       <c r="A30" s="94" t="s">
@@ -3268,612 +3292,612 @@
       <c r="R30" s="111"/>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="135"/>
-      <c r="B31" s="136"/>
-      <c r="C31" s="136"/>
-      <c r="D31" s="136"/>
-      <c r="E31" s="136"/>
-      <c r="F31" s="136"/>
-      <c r="G31" s="136"/>
-      <c r="H31" s="136"/>
-      <c r="I31" s="136"/>
-      <c r="J31" s="136"/>
-      <c r="K31" s="136"/>
-      <c r="L31" s="136"/>
-      <c r="M31" s="136"/>
-      <c r="N31" s="136"/>
-      <c r="O31" s="136"/>
-      <c r="P31" s="136"/>
-      <c r="Q31" s="136"/>
-      <c r="R31" s="137"/>
+      <c r="A31" s="144"/>
+      <c r="B31" s="145"/>
+      <c r="C31" s="145"/>
+      <c r="D31" s="145"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="145"/>
+      <c r="G31" s="145"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="145"/>
+      <c r="J31" s="145"/>
+      <c r="K31" s="145"/>
+      <c r="L31" s="145"/>
+      <c r="M31" s="145"/>
+      <c r="N31" s="145"/>
+      <c r="O31" s="145"/>
+      <c r="P31" s="145"/>
+      <c r="Q31" s="145"/>
+      <c r="R31" s="146"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="135"/>
-      <c r="B32" s="136"/>
-      <c r="C32" s="136"/>
-      <c r="D32" s="136"/>
-      <c r="E32" s="136"/>
-      <c r="F32" s="136"/>
-      <c r="G32" s="136"/>
-      <c r="H32" s="136"/>
-      <c r="I32" s="136"/>
-      <c r="J32" s="136"/>
-      <c r="K32" s="136"/>
-      <c r="L32" s="136"/>
-      <c r="M32" s="136"/>
-      <c r="N32" s="136"/>
-      <c r="O32" s="136"/>
-      <c r="P32" s="136"/>
-      <c r="Q32" s="136"/>
-      <c r="R32" s="137"/>
+      <c r="A32" s="144"/>
+      <c r="B32" s="145"/>
+      <c r="C32" s="145"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="145"/>
+      <c r="K32" s="145"/>
+      <c r="L32" s="145"/>
+      <c r="M32" s="145"/>
+      <c r="N32" s="145"/>
+      <c r="O32" s="145"/>
+      <c r="P32" s="145"/>
+      <c r="Q32" s="145"/>
+      <c r="R32" s="146"/>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" s="135"/>
-      <c r="B33" s="136"/>
-      <c r="C33" s="136"/>
-      <c r="D33" s="136"/>
-      <c r="E33" s="136"/>
-      <c r="F33" s="136"/>
-      <c r="G33" s="136"/>
-      <c r="H33" s="136"/>
-      <c r="I33" s="136"/>
-      <c r="J33" s="136"/>
-      <c r="K33" s="136"/>
-      <c r="L33" s="136"/>
-      <c r="M33" s="136"/>
-      <c r="N33" s="136"/>
-      <c r="O33" s="136"/>
-      <c r="P33" s="136"/>
-      <c r="Q33" s="136"/>
-      <c r="R33" s="137"/>
+      <c r="A33" s="144"/>
+      <c r="B33" s="145"/>
+      <c r="C33" s="145"/>
+      <c r="D33" s="145"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="145"/>
+      <c r="H33" s="145"/>
+      <c r="I33" s="145"/>
+      <c r="J33" s="145"/>
+      <c r="K33" s="145"/>
+      <c r="L33" s="145"/>
+      <c r="M33" s="145"/>
+      <c r="N33" s="145"/>
+      <c r="O33" s="145"/>
+      <c r="P33" s="145"/>
+      <c r="Q33" s="145"/>
+      <c r="R33" s="146"/>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34" s="135"/>
-      <c r="B34" s="136"/>
-      <c r="C34" s="136"/>
-      <c r="D34" s="136"/>
-      <c r="E34" s="136"/>
-      <c r="F34" s="136"/>
-      <c r="G34" s="136"/>
-      <c r="H34" s="136"/>
-      <c r="I34" s="136"/>
-      <c r="J34" s="136"/>
-      <c r="K34" s="136"/>
-      <c r="L34" s="136"/>
-      <c r="M34" s="136"/>
-      <c r="N34" s="136"/>
-      <c r="O34" s="136"/>
-      <c r="P34" s="136"/>
-      <c r="Q34" s="136"/>
-      <c r="R34" s="137"/>
+      <c r="A34" s="144"/>
+      <c r="B34" s="145"/>
+      <c r="C34" s="145"/>
+      <c r="D34" s="145"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="145"/>
+      <c r="G34" s="145"/>
+      <c r="H34" s="145"/>
+      <c r="I34" s="145"/>
+      <c r="J34" s="145"/>
+      <c r="K34" s="145"/>
+      <c r="L34" s="145"/>
+      <c r="M34" s="145"/>
+      <c r="N34" s="145"/>
+      <c r="O34" s="145"/>
+      <c r="P34" s="145"/>
+      <c r="Q34" s="145"/>
+      <c r="R34" s="146"/>
     </row>
     <row r="35" spans="1:18">
-      <c r="A35" s="135"/>
-      <c r="B35" s="136"/>
-      <c r="C35" s="136"/>
-      <c r="D35" s="136"/>
-      <c r="E35" s="136"/>
-      <c r="F35" s="136"/>
-      <c r="G35" s="136"/>
-      <c r="H35" s="136"/>
-      <c r="I35" s="136"/>
-      <c r="J35" s="136"/>
-      <c r="K35" s="136"/>
-      <c r="L35" s="136"/>
-      <c r="M35" s="136"/>
-      <c r="N35" s="136"/>
-      <c r="O35" s="136"/>
-      <c r="P35" s="136"/>
-      <c r="Q35" s="136"/>
-      <c r="R35" s="137"/>
+      <c r="A35" s="144"/>
+      <c r="B35" s="145"/>
+      <c r="C35" s="145"/>
+      <c r="D35" s="145"/>
+      <c r="E35" s="145"/>
+      <c r="F35" s="145"/>
+      <c r="G35" s="145"/>
+      <c r="H35" s="145"/>
+      <c r="I35" s="145"/>
+      <c r="J35" s="145"/>
+      <c r="K35" s="145"/>
+      <c r="L35" s="145"/>
+      <c r="M35" s="145"/>
+      <c r="N35" s="145"/>
+      <c r="O35" s="145"/>
+      <c r="P35" s="145"/>
+      <c r="Q35" s="145"/>
+      <c r="R35" s="146"/>
     </row>
     <row r="36" spans="1:18">
-      <c r="A36" s="135"/>
-      <c r="B36" s="136"/>
-      <c r="C36" s="136"/>
-      <c r="D36" s="136"/>
-      <c r="E36" s="136"/>
-      <c r="F36" s="136"/>
-      <c r="G36" s="136"/>
-      <c r="H36" s="136"/>
-      <c r="I36" s="136"/>
-      <c r="J36" s="136"/>
-      <c r="K36" s="136"/>
-      <c r="L36" s="136"/>
-      <c r="M36" s="136"/>
-      <c r="N36" s="136"/>
-      <c r="O36" s="136"/>
-      <c r="P36" s="136"/>
-      <c r="Q36" s="136"/>
-      <c r="R36" s="137"/>
+      <c r="A36" s="144"/>
+      <c r="B36" s="145"/>
+      <c r="C36" s="145"/>
+      <c r="D36" s="145"/>
+      <c r="E36" s="145"/>
+      <c r="F36" s="145"/>
+      <c r="G36" s="145"/>
+      <c r="H36" s="145"/>
+      <c r="I36" s="145"/>
+      <c r="J36" s="145"/>
+      <c r="K36" s="145"/>
+      <c r="L36" s="145"/>
+      <c r="M36" s="145"/>
+      <c r="N36" s="145"/>
+      <c r="O36" s="145"/>
+      <c r="P36" s="145"/>
+      <c r="Q36" s="145"/>
+      <c r="R36" s="146"/>
     </row>
     <row r="37" spans="1:18">
-      <c r="A37" s="135"/>
-      <c r="B37" s="136"/>
-      <c r="C37" s="136"/>
-      <c r="D37" s="136"/>
-      <c r="E37" s="136"/>
-      <c r="F37" s="136"/>
-      <c r="G37" s="136"/>
-      <c r="H37" s="136"/>
-      <c r="I37" s="136"/>
-      <c r="J37" s="136"/>
-      <c r="K37" s="136"/>
-      <c r="L37" s="136"/>
-      <c r="M37" s="136"/>
-      <c r="N37" s="136"/>
-      <c r="O37" s="136"/>
-      <c r="P37" s="136"/>
-      <c r="Q37" s="136"/>
-      <c r="R37" s="137"/>
+      <c r="A37" s="144"/>
+      <c r="B37" s="145"/>
+      <c r="C37" s="145"/>
+      <c r="D37" s="145"/>
+      <c r="E37" s="145"/>
+      <c r="F37" s="145"/>
+      <c r="G37" s="145"/>
+      <c r="H37" s="145"/>
+      <c r="I37" s="145"/>
+      <c r="J37" s="145"/>
+      <c r="K37" s="145"/>
+      <c r="L37" s="145"/>
+      <c r="M37" s="145"/>
+      <c r="N37" s="145"/>
+      <c r="O37" s="145"/>
+      <c r="P37" s="145"/>
+      <c r="Q37" s="145"/>
+      <c r="R37" s="146"/>
     </row>
     <row r="38" spans="1:18">
-      <c r="A38" s="135"/>
-      <c r="B38" s="136"/>
-      <c r="C38" s="136"/>
-      <c r="D38" s="136"/>
-      <c r="E38" s="136"/>
-      <c r="F38" s="136"/>
-      <c r="G38" s="136"/>
-      <c r="H38" s="136"/>
-      <c r="I38" s="136"/>
-      <c r="J38" s="136"/>
-      <c r="K38" s="136"/>
-      <c r="L38" s="136"/>
-      <c r="M38" s="136"/>
-      <c r="N38" s="136"/>
-      <c r="O38" s="136"/>
-      <c r="P38" s="136"/>
-      <c r="Q38" s="136"/>
-      <c r="R38" s="137"/>
+      <c r="A38" s="144"/>
+      <c r="B38" s="145"/>
+      <c r="C38" s="145"/>
+      <c r="D38" s="145"/>
+      <c r="E38" s="145"/>
+      <c r="F38" s="145"/>
+      <c r="G38" s="145"/>
+      <c r="H38" s="145"/>
+      <c r="I38" s="145"/>
+      <c r="J38" s="145"/>
+      <c r="K38" s="145"/>
+      <c r="L38" s="145"/>
+      <c r="M38" s="145"/>
+      <c r="N38" s="145"/>
+      <c r="O38" s="145"/>
+      <c r="P38" s="145"/>
+      <c r="Q38" s="145"/>
+      <c r="R38" s="146"/>
     </row>
     <row r="39" spans="1:18">
-      <c r="A39" s="135"/>
-      <c r="B39" s="136"/>
-      <c r="C39" s="136"/>
-      <c r="D39" s="136"/>
-      <c r="E39" s="136"/>
-      <c r="F39" s="136"/>
-      <c r="G39" s="136"/>
-      <c r="H39" s="136"/>
-      <c r="I39" s="136"/>
-      <c r="J39" s="136"/>
-      <c r="K39" s="136"/>
-      <c r="L39" s="136"/>
-      <c r="M39" s="136"/>
-      <c r="N39" s="136"/>
-      <c r="O39" s="136"/>
-      <c r="P39" s="136"/>
-      <c r="Q39" s="136"/>
-      <c r="R39" s="137"/>
+      <c r="A39" s="144"/>
+      <c r="B39" s="145"/>
+      <c r="C39" s="145"/>
+      <c r="D39" s="145"/>
+      <c r="E39" s="145"/>
+      <c r="F39" s="145"/>
+      <c r="G39" s="145"/>
+      <c r="H39" s="145"/>
+      <c r="I39" s="145"/>
+      <c r="J39" s="145"/>
+      <c r="K39" s="145"/>
+      <c r="L39" s="145"/>
+      <c r="M39" s="145"/>
+      <c r="N39" s="145"/>
+      <c r="O39" s="145"/>
+      <c r="P39" s="145"/>
+      <c r="Q39" s="145"/>
+      <c r="R39" s="146"/>
     </row>
     <row r="40" spans="1:18">
-      <c r="A40" s="135"/>
-      <c r="B40" s="136"/>
-      <c r="C40" s="136"/>
-      <c r="D40" s="136"/>
-      <c r="E40" s="136"/>
-      <c r="F40" s="136"/>
-      <c r="G40" s="136"/>
-      <c r="H40" s="136"/>
-      <c r="I40" s="136"/>
-      <c r="J40" s="136"/>
-      <c r="K40" s="136"/>
-      <c r="L40" s="136"/>
-      <c r="M40" s="136"/>
-      <c r="N40" s="136"/>
-      <c r="O40" s="136"/>
-      <c r="P40" s="136"/>
-      <c r="Q40" s="136"/>
-      <c r="R40" s="137"/>
+      <c r="A40" s="144"/>
+      <c r="B40" s="145"/>
+      <c r="C40" s="145"/>
+      <c r="D40" s="145"/>
+      <c r="E40" s="145"/>
+      <c r="F40" s="145"/>
+      <c r="G40" s="145"/>
+      <c r="H40" s="145"/>
+      <c r="I40" s="145"/>
+      <c r="J40" s="145"/>
+      <c r="K40" s="145"/>
+      <c r="L40" s="145"/>
+      <c r="M40" s="145"/>
+      <c r="N40" s="145"/>
+      <c r="O40" s="145"/>
+      <c r="P40" s="145"/>
+      <c r="Q40" s="145"/>
+      <c r="R40" s="146"/>
     </row>
     <row r="41" spans="1:18">
-      <c r="A41" s="135"/>
-      <c r="B41" s="136"/>
-      <c r="C41" s="136"/>
-      <c r="D41" s="136"/>
-      <c r="E41" s="136"/>
-      <c r="F41" s="136"/>
-      <c r="G41" s="136"/>
-      <c r="H41" s="136"/>
-      <c r="I41" s="136"/>
-      <c r="J41" s="136"/>
-      <c r="K41" s="136"/>
-      <c r="L41" s="136"/>
-      <c r="M41" s="136"/>
-      <c r="N41" s="136"/>
-      <c r="O41" s="136"/>
-      <c r="P41" s="136"/>
-      <c r="Q41" s="136"/>
-      <c r="R41" s="137"/>
+      <c r="A41" s="144"/>
+      <c r="B41" s="145"/>
+      <c r="C41" s="145"/>
+      <c r="D41" s="145"/>
+      <c r="E41" s="145"/>
+      <c r="F41" s="145"/>
+      <c r="G41" s="145"/>
+      <c r="H41" s="145"/>
+      <c r="I41" s="145"/>
+      <c r="J41" s="145"/>
+      <c r="K41" s="145"/>
+      <c r="L41" s="145"/>
+      <c r="M41" s="145"/>
+      <c r="N41" s="145"/>
+      <c r="O41" s="145"/>
+      <c r="P41" s="145"/>
+      <c r="Q41" s="145"/>
+      <c r="R41" s="146"/>
     </row>
     <row r="42" spans="1:18">
-      <c r="A42" s="135"/>
-      <c r="B42" s="136"/>
-      <c r="C42" s="136"/>
-      <c r="D42" s="136"/>
-      <c r="E42" s="136"/>
-      <c r="F42" s="136"/>
-      <c r="G42" s="136"/>
-      <c r="H42" s="136"/>
-      <c r="I42" s="136"/>
-      <c r="J42" s="136"/>
-      <c r="K42" s="136"/>
-      <c r="L42" s="136"/>
-      <c r="M42" s="136"/>
-      <c r="N42" s="136"/>
-      <c r="O42" s="136"/>
-      <c r="P42" s="136"/>
-      <c r="Q42" s="136"/>
-      <c r="R42" s="137"/>
+      <c r="A42" s="144"/>
+      <c r="B42" s="145"/>
+      <c r="C42" s="145"/>
+      <c r="D42" s="145"/>
+      <c r="E42" s="145"/>
+      <c r="F42" s="145"/>
+      <c r="G42" s="145"/>
+      <c r="H42" s="145"/>
+      <c r="I42" s="145"/>
+      <c r="J42" s="145"/>
+      <c r="K42" s="145"/>
+      <c r="L42" s="145"/>
+      <c r="M42" s="145"/>
+      <c r="N42" s="145"/>
+      <c r="O42" s="145"/>
+      <c r="P42" s="145"/>
+      <c r="Q42" s="145"/>
+      <c r="R42" s="146"/>
     </row>
     <row r="43" spans="1:18">
-      <c r="A43" s="135"/>
-      <c r="B43" s="136"/>
-      <c r="C43" s="136"/>
-      <c r="D43" s="136"/>
-      <c r="E43" s="136"/>
-      <c r="F43" s="136"/>
-      <c r="G43" s="136"/>
-      <c r="H43" s="136"/>
-      <c r="I43" s="136"/>
-      <c r="J43" s="136"/>
-      <c r="K43" s="136"/>
-      <c r="L43" s="136"/>
-      <c r="M43" s="136"/>
-      <c r="N43" s="136"/>
-      <c r="O43" s="136"/>
-      <c r="P43" s="136"/>
-      <c r="Q43" s="136"/>
-      <c r="R43" s="137"/>
+      <c r="A43" s="144"/>
+      <c r="B43" s="145"/>
+      <c r="C43" s="145"/>
+      <c r="D43" s="145"/>
+      <c r="E43" s="145"/>
+      <c r="F43" s="145"/>
+      <c r="G43" s="145"/>
+      <c r="H43" s="145"/>
+      <c r="I43" s="145"/>
+      <c r="J43" s="145"/>
+      <c r="K43" s="145"/>
+      <c r="L43" s="145"/>
+      <c r="M43" s="145"/>
+      <c r="N43" s="145"/>
+      <c r="O43" s="145"/>
+      <c r="P43" s="145"/>
+      <c r="Q43" s="145"/>
+      <c r="R43" s="146"/>
     </row>
     <row r="44" spans="1:18">
-      <c r="A44" s="135"/>
-      <c r="B44" s="136"/>
-      <c r="C44" s="136"/>
-      <c r="D44" s="136"/>
-      <c r="E44" s="136"/>
-      <c r="F44" s="136"/>
-      <c r="G44" s="136"/>
-      <c r="H44" s="136"/>
-      <c r="I44" s="136"/>
-      <c r="J44" s="136"/>
-      <c r="K44" s="136"/>
-      <c r="L44" s="136"/>
-      <c r="M44" s="136"/>
-      <c r="N44" s="136"/>
-      <c r="O44" s="136"/>
-      <c r="P44" s="136"/>
-      <c r="Q44" s="136"/>
-      <c r="R44" s="137"/>
+      <c r="A44" s="144"/>
+      <c r="B44" s="145"/>
+      <c r="C44" s="145"/>
+      <c r="D44" s="145"/>
+      <c r="E44" s="145"/>
+      <c r="F44" s="145"/>
+      <c r="G44" s="145"/>
+      <c r="H44" s="145"/>
+      <c r="I44" s="145"/>
+      <c r="J44" s="145"/>
+      <c r="K44" s="145"/>
+      <c r="L44" s="145"/>
+      <c r="M44" s="145"/>
+      <c r="N44" s="145"/>
+      <c r="O44" s="145"/>
+      <c r="P44" s="145"/>
+      <c r="Q44" s="145"/>
+      <c r="R44" s="146"/>
     </row>
     <row r="45" spans="1:18">
-      <c r="A45" s="135"/>
-      <c r="B45" s="136"/>
-      <c r="C45" s="136"/>
-      <c r="D45" s="136"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="136"/>
-      <c r="G45" s="136"/>
-      <c r="H45" s="136"/>
-      <c r="I45" s="136"/>
-      <c r="J45" s="136"/>
-      <c r="K45" s="136"/>
-      <c r="L45" s="136"/>
-      <c r="M45" s="136"/>
-      <c r="N45" s="136"/>
-      <c r="O45" s="136"/>
-      <c r="P45" s="136"/>
-      <c r="Q45" s="136"/>
-      <c r="R45" s="137"/>
+      <c r="A45" s="144"/>
+      <c r="B45" s="145"/>
+      <c r="C45" s="145"/>
+      <c r="D45" s="145"/>
+      <c r="E45" s="145"/>
+      <c r="F45" s="145"/>
+      <c r="G45" s="145"/>
+      <c r="H45" s="145"/>
+      <c r="I45" s="145"/>
+      <c r="J45" s="145"/>
+      <c r="K45" s="145"/>
+      <c r="L45" s="145"/>
+      <c r="M45" s="145"/>
+      <c r="N45" s="145"/>
+      <c r="O45" s="145"/>
+      <c r="P45" s="145"/>
+      <c r="Q45" s="145"/>
+      <c r="R45" s="146"/>
     </row>
     <row r="46" spans="1:18">
-      <c r="A46" s="135"/>
-      <c r="B46" s="136"/>
-      <c r="C46" s="136"/>
-      <c r="D46" s="136"/>
-      <c r="E46" s="136"/>
-      <c r="F46" s="136"/>
-      <c r="G46" s="136"/>
-      <c r="H46" s="136"/>
-      <c r="I46" s="136"/>
-      <c r="J46" s="136"/>
-      <c r="K46" s="136"/>
-      <c r="L46" s="136"/>
-      <c r="M46" s="136"/>
-      <c r="N46" s="136"/>
-      <c r="O46" s="136"/>
-      <c r="P46" s="136"/>
-      <c r="Q46" s="136"/>
-      <c r="R46" s="137"/>
+      <c r="A46" s="144"/>
+      <c r="B46" s="145"/>
+      <c r="C46" s="145"/>
+      <c r="D46" s="145"/>
+      <c r="E46" s="145"/>
+      <c r="F46" s="145"/>
+      <c r="G46" s="145"/>
+      <c r="H46" s="145"/>
+      <c r="I46" s="145"/>
+      <c r="J46" s="145"/>
+      <c r="K46" s="145"/>
+      <c r="L46" s="145"/>
+      <c r="M46" s="145"/>
+      <c r="N46" s="145"/>
+      <c r="O46" s="145"/>
+      <c r="P46" s="145"/>
+      <c r="Q46" s="145"/>
+      <c r="R46" s="146"/>
     </row>
     <row r="47" spans="1:18">
-      <c r="A47" s="135"/>
-      <c r="B47" s="136"/>
-      <c r="C47" s="136"/>
-      <c r="D47" s="136"/>
-      <c r="E47" s="136"/>
-      <c r="F47" s="136"/>
-      <c r="G47" s="136"/>
-      <c r="H47" s="136"/>
-      <c r="I47" s="136"/>
-      <c r="J47" s="136"/>
-      <c r="K47" s="136"/>
-      <c r="L47" s="136"/>
-      <c r="M47" s="136"/>
-      <c r="N47" s="136"/>
-      <c r="O47" s="136"/>
-      <c r="P47" s="136"/>
-      <c r="Q47" s="136"/>
-      <c r="R47" s="137"/>
+      <c r="A47" s="144"/>
+      <c r="B47" s="145"/>
+      <c r="C47" s="145"/>
+      <c r="D47" s="145"/>
+      <c r="E47" s="145"/>
+      <c r="F47" s="145"/>
+      <c r="G47" s="145"/>
+      <c r="H47" s="145"/>
+      <c r="I47" s="145"/>
+      <c r="J47" s="145"/>
+      <c r="K47" s="145"/>
+      <c r="L47" s="145"/>
+      <c r="M47" s="145"/>
+      <c r="N47" s="145"/>
+      <c r="O47" s="145"/>
+      <c r="P47" s="145"/>
+      <c r="Q47" s="145"/>
+      <c r="R47" s="146"/>
     </row>
     <row r="48" spans="1:18">
-      <c r="A48" s="135"/>
-      <c r="B48" s="136"/>
-      <c r="C48" s="136"/>
-      <c r="D48" s="136"/>
-      <c r="E48" s="136"/>
-      <c r="F48" s="136"/>
-      <c r="G48" s="136"/>
-      <c r="H48" s="136"/>
-      <c r="I48" s="136"/>
-      <c r="J48" s="136"/>
-      <c r="K48" s="136"/>
-      <c r="L48" s="136"/>
-      <c r="M48" s="136"/>
-      <c r="N48" s="136"/>
-      <c r="O48" s="136"/>
-      <c r="P48" s="136"/>
-      <c r="Q48" s="136"/>
-      <c r="R48" s="137"/>
+      <c r="A48" s="144"/>
+      <c r="B48" s="145"/>
+      <c r="C48" s="145"/>
+      <c r="D48" s="145"/>
+      <c r="E48" s="145"/>
+      <c r="F48" s="145"/>
+      <c r="G48" s="145"/>
+      <c r="H48" s="145"/>
+      <c r="I48" s="145"/>
+      <c r="J48" s="145"/>
+      <c r="K48" s="145"/>
+      <c r="L48" s="145"/>
+      <c r="M48" s="145"/>
+      <c r="N48" s="145"/>
+      <c r="O48" s="145"/>
+      <c r="P48" s="145"/>
+      <c r="Q48" s="145"/>
+      <c r="R48" s="146"/>
     </row>
     <row r="49" spans="1:18">
-      <c r="A49" s="135"/>
-      <c r="B49" s="136"/>
-      <c r="C49" s="136"/>
-      <c r="D49" s="136"/>
-      <c r="E49" s="136"/>
-      <c r="F49" s="136"/>
-      <c r="G49" s="136"/>
-      <c r="H49" s="136"/>
-      <c r="I49" s="136"/>
-      <c r="J49" s="136"/>
-      <c r="K49" s="136"/>
-      <c r="L49" s="136"/>
-      <c r="M49" s="136"/>
-      <c r="N49" s="136"/>
-      <c r="O49" s="136"/>
-      <c r="P49" s="136"/>
-      <c r="Q49" s="136"/>
-      <c r="R49" s="137"/>
+      <c r="A49" s="144"/>
+      <c r="B49" s="145"/>
+      <c r="C49" s="145"/>
+      <c r="D49" s="145"/>
+      <c r="E49" s="145"/>
+      <c r="F49" s="145"/>
+      <c r="G49" s="145"/>
+      <c r="H49" s="145"/>
+      <c r="I49" s="145"/>
+      <c r="J49" s="145"/>
+      <c r="K49" s="145"/>
+      <c r="L49" s="145"/>
+      <c r="M49" s="145"/>
+      <c r="N49" s="145"/>
+      <c r="O49" s="145"/>
+      <c r="P49" s="145"/>
+      <c r="Q49" s="145"/>
+      <c r="R49" s="146"/>
     </row>
     <row r="50" spans="1:18">
-      <c r="A50" s="135"/>
-      <c r="B50" s="136"/>
-      <c r="C50" s="136"/>
-      <c r="D50" s="136"/>
-      <c r="E50" s="136"/>
-      <c r="F50" s="136"/>
-      <c r="G50" s="136"/>
-      <c r="H50" s="136"/>
-      <c r="I50" s="136"/>
-      <c r="J50" s="136"/>
-      <c r="K50" s="136"/>
-      <c r="L50" s="136"/>
-      <c r="M50" s="136"/>
-      <c r="N50" s="136"/>
-      <c r="O50" s="136"/>
-      <c r="P50" s="136"/>
-      <c r="Q50" s="136"/>
-      <c r="R50" s="137"/>
+      <c r="A50" s="144"/>
+      <c r="B50" s="145"/>
+      <c r="C50" s="145"/>
+      <c r="D50" s="145"/>
+      <c r="E50" s="145"/>
+      <c r="F50" s="145"/>
+      <c r="G50" s="145"/>
+      <c r="H50" s="145"/>
+      <c r="I50" s="145"/>
+      <c r="J50" s="145"/>
+      <c r="K50" s="145"/>
+      <c r="L50" s="145"/>
+      <c r="M50" s="145"/>
+      <c r="N50" s="145"/>
+      <c r="O50" s="145"/>
+      <c r="P50" s="145"/>
+      <c r="Q50" s="145"/>
+      <c r="R50" s="146"/>
     </row>
     <row r="51" spans="1:18">
-      <c r="A51" s="135"/>
-      <c r="B51" s="136"/>
-      <c r="C51" s="136"/>
-      <c r="D51" s="136"/>
-      <c r="E51" s="136"/>
-      <c r="F51" s="136"/>
-      <c r="G51" s="136"/>
-      <c r="H51" s="136"/>
-      <c r="I51" s="136"/>
-      <c r="J51" s="136"/>
-      <c r="K51" s="136"/>
-      <c r="L51" s="136"/>
-      <c r="M51" s="136"/>
-      <c r="N51" s="136"/>
-      <c r="O51" s="136"/>
-      <c r="P51" s="136"/>
-      <c r="Q51" s="136"/>
-      <c r="R51" s="137"/>
+      <c r="A51" s="144"/>
+      <c r="B51" s="145"/>
+      <c r="C51" s="145"/>
+      <c r="D51" s="145"/>
+      <c r="E51" s="145"/>
+      <c r="F51" s="145"/>
+      <c r="G51" s="145"/>
+      <c r="H51" s="145"/>
+      <c r="I51" s="145"/>
+      <c r="J51" s="145"/>
+      <c r="K51" s="145"/>
+      <c r="L51" s="145"/>
+      <c r="M51" s="145"/>
+      <c r="N51" s="145"/>
+      <c r="O51" s="145"/>
+      <c r="P51" s="145"/>
+      <c r="Q51" s="145"/>
+      <c r="R51" s="146"/>
     </row>
     <row r="52" spans="1:18">
-      <c r="A52" s="135"/>
-      <c r="B52" s="136"/>
-      <c r="C52" s="136"/>
-      <c r="D52" s="136"/>
-      <c r="E52" s="136"/>
-      <c r="F52" s="136"/>
-      <c r="G52" s="136"/>
-      <c r="H52" s="136"/>
-      <c r="I52" s="136"/>
-      <c r="J52" s="136"/>
-      <c r="K52" s="136"/>
-      <c r="L52" s="136"/>
-      <c r="M52" s="136"/>
-      <c r="N52" s="136"/>
-      <c r="O52" s="136"/>
-      <c r="P52" s="136"/>
-      <c r="Q52" s="136"/>
-      <c r="R52" s="137"/>
+      <c r="A52" s="144"/>
+      <c r="B52" s="145"/>
+      <c r="C52" s="145"/>
+      <c r="D52" s="145"/>
+      <c r="E52" s="145"/>
+      <c r="F52" s="145"/>
+      <c r="G52" s="145"/>
+      <c r="H52" s="145"/>
+      <c r="I52" s="145"/>
+      <c r="J52" s="145"/>
+      <c r="K52" s="145"/>
+      <c r="L52" s="145"/>
+      <c r="M52" s="145"/>
+      <c r="N52" s="145"/>
+      <c r="O52" s="145"/>
+      <c r="P52" s="145"/>
+      <c r="Q52" s="145"/>
+      <c r="R52" s="146"/>
     </row>
     <row r="53" spans="1:18">
-      <c r="A53" s="135"/>
-      <c r="B53" s="136"/>
-      <c r="C53" s="136"/>
-      <c r="D53" s="136"/>
-      <c r="E53" s="136"/>
-      <c r="F53" s="136"/>
-      <c r="G53" s="136"/>
-      <c r="H53" s="136"/>
-      <c r="I53" s="136"/>
-      <c r="J53" s="136"/>
-      <c r="K53" s="136"/>
-      <c r="L53" s="136"/>
-      <c r="M53" s="136"/>
-      <c r="N53" s="136"/>
-      <c r="O53" s="136"/>
-      <c r="P53" s="136"/>
-      <c r="Q53" s="136"/>
-      <c r="R53" s="137"/>
+      <c r="A53" s="144"/>
+      <c r="B53" s="145"/>
+      <c r="C53" s="145"/>
+      <c r="D53" s="145"/>
+      <c r="E53" s="145"/>
+      <c r="F53" s="145"/>
+      <c r="G53" s="145"/>
+      <c r="H53" s="145"/>
+      <c r="I53" s="145"/>
+      <c r="J53" s="145"/>
+      <c r="K53" s="145"/>
+      <c r="L53" s="145"/>
+      <c r="M53" s="145"/>
+      <c r="N53" s="145"/>
+      <c r="O53" s="145"/>
+      <c r="P53" s="145"/>
+      <c r="Q53" s="145"/>
+      <c r="R53" s="146"/>
     </row>
     <row r="54" spans="1:18">
-      <c r="A54" s="135"/>
-      <c r="B54" s="136"/>
-      <c r="C54" s="136"/>
-      <c r="D54" s="136"/>
-      <c r="E54" s="136"/>
-      <c r="F54" s="136"/>
-      <c r="G54" s="136"/>
-      <c r="H54" s="136"/>
-      <c r="I54" s="136"/>
-      <c r="J54" s="136"/>
-      <c r="K54" s="136"/>
-      <c r="L54" s="136"/>
-      <c r="M54" s="136"/>
-      <c r="N54" s="136"/>
-      <c r="O54" s="136"/>
-      <c r="P54" s="136"/>
-      <c r="Q54" s="136"/>
-      <c r="R54" s="137"/>
+      <c r="A54" s="144"/>
+      <c r="B54" s="145"/>
+      <c r="C54" s="145"/>
+      <c r="D54" s="145"/>
+      <c r="E54" s="145"/>
+      <c r="F54" s="145"/>
+      <c r="G54" s="145"/>
+      <c r="H54" s="145"/>
+      <c r="I54" s="145"/>
+      <c r="J54" s="145"/>
+      <c r="K54" s="145"/>
+      <c r="L54" s="145"/>
+      <c r="M54" s="145"/>
+      <c r="N54" s="145"/>
+      <c r="O54" s="145"/>
+      <c r="P54" s="145"/>
+      <c r="Q54" s="145"/>
+      <c r="R54" s="146"/>
     </row>
     <row r="55" spans="1:18">
-      <c r="A55" s="135"/>
-      <c r="B55" s="136"/>
-      <c r="C55" s="136"/>
-      <c r="D55" s="136"/>
-      <c r="E55" s="136"/>
-      <c r="F55" s="136"/>
-      <c r="G55" s="136"/>
-      <c r="H55" s="136"/>
-      <c r="I55" s="136"/>
-      <c r="J55" s="136"/>
-      <c r="K55" s="136"/>
-      <c r="L55" s="136"/>
-      <c r="M55" s="136"/>
-      <c r="N55" s="136"/>
-      <c r="O55" s="136"/>
-      <c r="P55" s="136"/>
-      <c r="Q55" s="136"/>
-      <c r="R55" s="137"/>
+      <c r="A55" s="144"/>
+      <c r="B55" s="145"/>
+      <c r="C55" s="145"/>
+      <c r="D55" s="145"/>
+      <c r="E55" s="145"/>
+      <c r="F55" s="145"/>
+      <c r="G55" s="145"/>
+      <c r="H55" s="145"/>
+      <c r="I55" s="145"/>
+      <c r="J55" s="145"/>
+      <c r="K55" s="145"/>
+      <c r="L55" s="145"/>
+      <c r="M55" s="145"/>
+      <c r="N55" s="145"/>
+      <c r="O55" s="145"/>
+      <c r="P55" s="145"/>
+      <c r="Q55" s="145"/>
+      <c r="R55" s="146"/>
     </row>
     <row r="56" spans="1:18">
-      <c r="A56" s="135"/>
-      <c r="B56" s="136"/>
-      <c r="C56" s="136"/>
-      <c r="D56" s="136"/>
-      <c r="E56" s="136"/>
-      <c r="F56" s="136"/>
-      <c r="G56" s="136"/>
-      <c r="H56" s="136"/>
-      <c r="I56" s="136"/>
-      <c r="J56" s="136"/>
-      <c r="K56" s="136"/>
-      <c r="L56" s="136"/>
-      <c r="M56" s="136"/>
-      <c r="N56" s="136"/>
-      <c r="O56" s="136"/>
-      <c r="P56" s="136"/>
-      <c r="Q56" s="136"/>
-      <c r="R56" s="137"/>
+      <c r="A56" s="144"/>
+      <c r="B56" s="145"/>
+      <c r="C56" s="145"/>
+      <c r="D56" s="145"/>
+      <c r="E56" s="145"/>
+      <c r="F56" s="145"/>
+      <c r="G56" s="145"/>
+      <c r="H56" s="145"/>
+      <c r="I56" s="145"/>
+      <c r="J56" s="145"/>
+      <c r="K56" s="145"/>
+      <c r="L56" s="145"/>
+      <c r="M56" s="145"/>
+      <c r="N56" s="145"/>
+      <c r="O56" s="145"/>
+      <c r="P56" s="145"/>
+      <c r="Q56" s="145"/>
+      <c r="R56" s="146"/>
     </row>
     <row r="57" spans="1:18">
-      <c r="A57" s="135"/>
-      <c r="B57" s="136"/>
-      <c r="C57" s="136"/>
-      <c r="D57" s="136"/>
-      <c r="E57" s="136"/>
-      <c r="F57" s="136"/>
-      <c r="G57" s="136"/>
-      <c r="H57" s="136"/>
-      <c r="I57" s="136"/>
-      <c r="J57" s="136"/>
-      <c r="K57" s="136"/>
-      <c r="L57" s="136"/>
-      <c r="M57" s="136"/>
-      <c r="N57" s="136"/>
-      <c r="O57" s="136"/>
-      <c r="P57" s="136"/>
-      <c r="Q57" s="136"/>
-      <c r="R57" s="137"/>
+      <c r="A57" s="144"/>
+      <c r="B57" s="145"/>
+      <c r="C57" s="145"/>
+      <c r="D57" s="145"/>
+      <c r="E57" s="145"/>
+      <c r="F57" s="145"/>
+      <c r="G57" s="145"/>
+      <c r="H57" s="145"/>
+      <c r="I57" s="145"/>
+      <c r="J57" s="145"/>
+      <c r="K57" s="145"/>
+      <c r="L57" s="145"/>
+      <c r="M57" s="145"/>
+      <c r="N57" s="145"/>
+      <c r="O57" s="145"/>
+      <c r="P57" s="145"/>
+      <c r="Q57" s="145"/>
+      <c r="R57" s="146"/>
     </row>
     <row r="58" spans="1:18">
-      <c r="A58" s="135"/>
-      <c r="B58" s="136"/>
-      <c r="C58" s="136"/>
-      <c r="D58" s="136"/>
-      <c r="E58" s="136"/>
-      <c r="F58" s="136"/>
-      <c r="G58" s="136"/>
-      <c r="H58" s="136"/>
-      <c r="I58" s="136"/>
-      <c r="J58" s="136"/>
-      <c r="K58" s="136"/>
-      <c r="L58" s="136"/>
-      <c r="M58" s="136"/>
-      <c r="N58" s="136"/>
-      <c r="O58" s="136"/>
-      <c r="P58" s="136"/>
-      <c r="Q58" s="136"/>
-      <c r="R58" s="137"/>
+      <c r="A58" s="144"/>
+      <c r="B58" s="145"/>
+      <c r="C58" s="145"/>
+      <c r="D58" s="145"/>
+      <c r="E58" s="145"/>
+      <c r="F58" s="145"/>
+      <c r="G58" s="145"/>
+      <c r="H58" s="145"/>
+      <c r="I58" s="145"/>
+      <c r="J58" s="145"/>
+      <c r="K58" s="145"/>
+      <c r="L58" s="145"/>
+      <c r="M58" s="145"/>
+      <c r="N58" s="145"/>
+      <c r="O58" s="145"/>
+      <c r="P58" s="145"/>
+      <c r="Q58" s="145"/>
+      <c r="R58" s="146"/>
     </row>
     <row r="59" spans="1:18">
-      <c r="A59" s="135"/>
-      <c r="B59" s="136"/>
-      <c r="C59" s="136"/>
-      <c r="D59" s="136"/>
-      <c r="E59" s="136"/>
-      <c r="F59" s="136"/>
-      <c r="G59" s="136"/>
-      <c r="H59" s="136"/>
-      <c r="I59" s="136"/>
-      <c r="J59" s="136"/>
-      <c r="K59" s="136"/>
-      <c r="L59" s="136"/>
-      <c r="M59" s="136"/>
-      <c r="N59" s="136"/>
-      <c r="O59" s="136"/>
-      <c r="P59" s="136"/>
-      <c r="Q59" s="136"/>
-      <c r="R59" s="137"/>
-    </row>
-    <row r="60" spans="1:18" ht="15" thickBot="1">
-      <c r="A60" s="138"/>
-      <c r="B60" s="139"/>
-      <c r="C60" s="139"/>
-      <c r="D60" s="139"/>
-      <c r="E60" s="139"/>
-      <c r="F60" s="139"/>
-      <c r="G60" s="139"/>
-      <c r="H60" s="139"/>
-      <c r="I60" s="139"/>
-      <c r="J60" s="139"/>
-      <c r="K60" s="139"/>
-      <c r="L60" s="139"/>
-      <c r="M60" s="139"/>
-      <c r="N60" s="139"/>
-      <c r="O60" s="139"/>
-      <c r="P60" s="139"/>
-      <c r="Q60" s="139"/>
-      <c r="R60" s="140"/>
-    </row>
-    <row r="61" spans="1:18" ht="17.25">
+      <c r="A59" s="144"/>
+      <c r="B59" s="145"/>
+      <c r="C59" s="145"/>
+      <c r="D59" s="145"/>
+      <c r="E59" s="145"/>
+      <c r="F59" s="145"/>
+      <c r="G59" s="145"/>
+      <c r="H59" s="145"/>
+      <c r="I59" s="145"/>
+      <c r="J59" s="145"/>
+      <c r="K59" s="145"/>
+      <c r="L59" s="145"/>
+      <c r="M59" s="145"/>
+      <c r="N59" s="145"/>
+      <c r="O59" s="145"/>
+      <c r="P59" s="145"/>
+      <c r="Q59" s="145"/>
+      <c r="R59" s="146"/>
+    </row>
+    <row r="60" spans="1:18" ht="16" thickBot="1">
+      <c r="A60" s="147"/>
+      <c r="B60" s="148"/>
+      <c r="C60" s="148"/>
+      <c r="D60" s="148"/>
+      <c r="E60" s="148"/>
+      <c r="F60" s="148"/>
+      <c r="G60" s="148"/>
+      <c r="H60" s="148"/>
+      <c r="I60" s="148"/>
+      <c r="J60" s="148"/>
+      <c r="K60" s="148"/>
+      <c r="L60" s="148"/>
+      <c r="M60" s="148"/>
+      <c r="N60" s="148"/>
+      <c r="O60" s="148"/>
+      <c r="P60" s="148"/>
+      <c r="Q60" s="148"/>
+      <c r="R60" s="149"/>
+    </row>
+    <row r="61" spans="1:18" ht="18">
       <c r="A61" s="8"/>
-      <c r="B61" s="141" t="s">
+      <c r="B61" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="C61" s="141"/>
-      <c r="D61" s="141"/>
+      <c r="C61" s="150"/>
+      <c r="D61" s="150"/>
       <c r="E61" s="7"/>
       <c r="F61" s="19"/>
       <c r="G61" s="21"/>
@@ -3893,17 +3917,29 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="A23:R29"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A31:R54"/>
+    <mergeCell ref="A55:R60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="M17:R19"/>
+    <mergeCell ref="E15:L15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="M21:R21"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:L4"/>
     <mergeCell ref="O4:P4"/>
@@ -3920,29 +3956,17 @@
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A31:R54"/>
-    <mergeCell ref="A55:R60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="M17:R19"/>
-    <mergeCell ref="E15:L15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:L13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="A23:R29"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="O3:R3"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3955,73 +3979,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE3B84B-725E-41C3-BD7B-FF65BC051E36}">
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:XFD39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="24.75">
-      <c r="A1" s="180" t="s">
+    <row r="1" spans="1:17" ht="26">
+      <c r="A1" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
-      <c r="J1" s="180"/>
-      <c r="K1" s="180"/>
-      <c r="L1" s="180"/>
-      <c r="M1" s="180"/>
-      <c r="N1" s="180"/>
-      <c r="O1" s="180"/>
-      <c r="P1" s="180"/>
-      <c r="Q1" s="181"/>
-    </row>
-    <row r="2" spans="1:17" ht="17.25">
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="119"/>
+      <c r="Q1" s="120"/>
+    </row>
+    <row r="2" spans="1:17" ht="18">
       <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="19"/>
-      <c r="C2" s="207"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
-      <c r="I2" s="204" t="s">
+      <c r="I2" s="189" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="205"/>
-      <c r="K2" s="182"/>
-      <c r="L2" s="182"/>
-      <c r="M2" s="206"/>
-      <c r="N2" s="206"/>
+      <c r="J2" s="190"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="191"/>
+      <c r="N2" s="191"/>
       <c r="O2" s="72"/>
       <c r="P2" s="19"/>
       <c r="Q2" s="19"/>
     </row>
-    <row r="3" spans="1:17" ht="17.25">
+    <row r="3" spans="1:17" ht="18">
       <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="19"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="174"/>
-      <c r="E3" s="174"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
-      <c r="I3" s="204" t="s">
+      <c r="I3" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="205"/>
-      <c r="K3" s="182"/>
-      <c r="L3" s="182"/>
-      <c r="M3" s="182"/>
-      <c r="N3" s="206"/>
+      <c r="J3" s="190"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="191"/>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
@@ -4072,9 +4096,9 @@
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="190"/>
-      <c r="G6" s="181"/>
-      <c r="H6" s="181"/>
+      <c r="F6" s="195"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="120"/>
       <c r="I6" s="22"/>
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
@@ -4085,16 +4109,16 @@
       <c r="P6" s="22"/>
       <c r="Q6" s="22"/>
     </row>
-    <row r="7" spans="1:17" ht="21.75" thickBot="1">
+    <row r="7" spans="1:17" ht="22" thickBot="1">
       <c r="A7" s="23"/>
       <c r="B7" s="19"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
-      <c r="F7" s="191"/>
-      <c r="G7" s="189"/>
-      <c r="H7" s="189"/>
-      <c r="I7" s="189"/>
+      <c r="F7" s="196"/>
+      <c r="G7" s="193"/>
+      <c r="H7" s="193"/>
+      <c r="I7" s="193"/>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
       <c r="L7" s="58"/>
@@ -4232,12 +4256,12 @@
       <c r="K14" s="64"/>
       <c r="L14" s="64"/>
       <c r="M14" s="27"/>
-      <c r="N14" s="192"/>
-      <c r="O14" s="174"/>
-      <c r="P14" s="173"/>
+      <c r="N14" s="197"/>
+      <c r="O14" s="128"/>
+      <c r="P14" s="137"/>
       <c r="Q14" s="22"/>
     </row>
-    <row r="15" spans="1:17" ht="21.75" thickBot="1">
+    <row r="15" spans="1:17" ht="22" thickBot="1">
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
       <c r="C15" s="28"/>
@@ -4275,7 +4299,7 @@
       <c r="P16" s="79"/>
       <c r="Q16" s="30"/>
     </row>
-    <row r="17" spans="1:17" ht="21">
+    <row r="17" spans="1:17" ht="51" customHeight="1">
       <c r="A17" s="30"/>
       <c r="B17" s="31"/>
       <c r="C17" s="36" t="s">
@@ -4283,20 +4307,20 @@
       </c>
       <c r="D17" s="32"/>
       <c r="E17" s="47"/>
-      <c r="F17" s="193"/>
-      <c r="G17" s="193"/>
-      <c r="H17" s="193"/>
-      <c r="I17" s="193"/>
-      <c r="J17" s="193"/>
-      <c r="K17" s="193"/>
-      <c r="L17" s="193"/>
-      <c r="M17" s="193"/>
+      <c r="F17" s="198"/>
+      <c r="G17" s="198"/>
+      <c r="H17" s="198"/>
+      <c r="I17" s="198"/>
+      <c r="J17" s="198"/>
+      <c r="K17" s="198"/>
+      <c r="L17" s="198"/>
+      <c r="M17" s="198"/>
       <c r="N17" s="22"/>
       <c r="O17" s="30"/>
       <c r="P17" s="79"/>
       <c r="Q17" s="30"/>
     </row>
-    <row r="18" spans="1:17" ht="18">
+    <row r="18" spans="1:17" ht="51" customHeight="1">
       <c r="A18" s="30"/>
       <c r="B18" s="22"/>
       <c r="C18" s="36" t="s">
@@ -4304,14 +4328,14 @@
       </c>
       <c r="D18" s="33"/>
       <c r="E18" s="54"/>
-      <c r="F18" s="194"/>
-      <c r="G18" s="194"/>
-      <c r="H18" s="194"/>
-      <c r="I18" s="194"/>
-      <c r="J18" s="194"/>
-      <c r="K18" s="194"/>
-      <c r="L18" s="194"/>
-      <c r="M18" s="194"/>
+      <c r="F18" s="199"/>
+      <c r="G18" s="199"/>
+      <c r="H18" s="199"/>
+      <c r="I18" s="199"/>
+      <c r="J18" s="199"/>
+      <c r="K18" s="199"/>
+      <c r="L18" s="199"/>
+      <c r="M18" s="199"/>
       <c r="N18" s="33"/>
       <c r="O18" s="33"/>
       <c r="P18" s="79"/>
@@ -4406,9 +4430,9 @@
       <c r="J23" s="30"/>
       <c r="K23" s="35"/>
       <c r="L23" s="35"/>
-      <c r="M23" s="195"/>
-      <c r="N23" s="196"/>
-      <c r="O23" s="197"/>
+      <c r="M23" s="200"/>
+      <c r="N23" s="201"/>
+      <c r="O23" s="202"/>
       <c r="P23" s="30"/>
       <c r="Q23" s="30"/>
     </row>
@@ -4427,8 +4451,8 @@
       <c r="L24" s="35"/>
       <c r="M24" s="23"/>
       <c r="N24" s="23"/>
-      <c r="O24" s="198"/>
-      <c r="P24" s="181"/>
+      <c r="O24" s="203"/>
+      <c r="P24" s="120"/>
       <c r="Q24" s="22"/>
     </row>
     <row r="25" spans="1:17" ht="21">
@@ -4566,7 +4590,7 @@
       <c r="P31" s="36"/>
       <c r="Q31" s="36"/>
     </row>
-    <row r="32" spans="1:17" ht="22.5">
+    <row r="32" spans="1:17" ht="23">
       <c r="A32" s="22"/>
       <c r="B32" s="22"/>
       <c r="C32" s="36"/>
@@ -4578,14 +4602,14 @@
       <c r="I32" s="40"/>
       <c r="J32" s="69"/>
       <c r="K32" s="36"/>
-      <c r="L32" s="199"/>
+      <c r="L32" s="204"/>
       <c r="M32" s="68"/>
       <c r="N32" s="55"/>
       <c r="O32" s="55"/>
       <c r="P32" s="36"/>
       <c r="Q32" s="36"/>
     </row>
-    <row r="33" spans="1:17" ht="22.5">
+    <row r="33" spans="1:17" ht="23">
       <c r="A33" s="22"/>
       <c r="B33" s="22"/>
       <c r="C33" s="36"/>
@@ -4597,7 +4621,7 @@
       <c r="I33" s="40"/>
       <c r="J33" s="69"/>
       <c r="K33" s="68"/>
-      <c r="L33" s="200"/>
+      <c r="L33" s="205"/>
       <c r="M33" s="68"/>
       <c r="N33" s="55"/>
       <c r="O33" s="55"/>
@@ -4616,14 +4640,14 @@
       <c r="I34" s="36"/>
       <c r="J34" s="36"/>
       <c r="K34" s="41"/>
-      <c r="L34" s="200"/>
+      <c r="L34" s="205"/>
       <c r="M34" s="68"/>
       <c r="N34" s="55"/>
       <c r="O34" s="55"/>
       <c r="P34" s="36"/>
       <c r="Q34" s="36"/>
     </row>
-    <row r="35" spans="1:17" ht="22.5">
+    <row r="35" spans="1:17" ht="23">
       <c r="A35" s="22"/>
       <c r="B35" s="22"/>
       <c r="C35" s="40"/>
@@ -4680,7 +4704,7 @@
       <c r="P37" s="36"/>
       <c r="Q37" s="36"/>
     </row>
-    <row r="38" spans="1:17" ht="21">
+    <row r="38" spans="1:17" ht="39" customHeight="1">
       <c r="A38" s="22"/>
       <c r="B38" s="22"/>
       <c r="C38" s="36" t="s">
@@ -4688,20 +4712,20 @@
       </c>
       <c r="D38" s="41"/>
       <c r="E38" s="36"/>
-      <c r="F38" s="201"/>
-      <c r="G38" s="201"/>
-      <c r="H38" s="201"/>
-      <c r="I38" s="201"/>
-      <c r="J38" s="201"/>
-      <c r="K38" s="201"/>
-      <c r="L38" s="201"/>
-      <c r="M38" s="201"/>
+      <c r="F38" s="206"/>
+      <c r="G38" s="206"/>
+      <c r="H38" s="206"/>
+      <c r="I38" s="206"/>
+      <c r="J38" s="206"/>
+      <c r="K38" s="206"/>
+      <c r="L38" s="206"/>
+      <c r="M38" s="206"/>
       <c r="N38" s="55"/>
       <c r="O38" s="36"/>
       <c r="P38" s="53"/>
       <c r="Q38" s="53"/>
     </row>
-    <row r="39" spans="1:17" ht="18">
+    <row r="39" spans="1:17" ht="39" customHeight="1">
       <c r="A39" s="22"/>
       <c r="B39" s="22"/>
       <c r="C39" s="36" t="s">
@@ -4709,14 +4733,14 @@
       </c>
       <c r="D39" s="37"/>
       <c r="E39" s="37"/>
-      <c r="F39" s="201"/>
-      <c r="G39" s="201"/>
-      <c r="H39" s="201"/>
-      <c r="I39" s="201"/>
-      <c r="J39" s="201"/>
-      <c r="K39" s="201"/>
-      <c r="L39" s="201"/>
-      <c r="M39" s="201"/>
+      <c r="F39" s="206"/>
+      <c r="G39" s="206"/>
+      <c r="H39" s="206"/>
+      <c r="I39" s="206"/>
+      <c r="J39" s="206"/>
+      <c r="K39" s="206"/>
+      <c r="L39" s="206"/>
+      <c r="M39" s="206"/>
       <c r="N39" s="37"/>
       <c r="O39" s="37"/>
       <c r="P39" s="53"/>
@@ -4761,48 +4785,48 @@
       <c r="Q41" s="22"/>
     </row>
     <row r="42" spans="1:17" ht="21">
-      <c r="A42" s="202" t="s">
+      <c r="A42" s="207" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="181"/>
-      <c r="C42" s="181"/>
-      <c r="D42" s="181"/>
-      <c r="E42" s="181"/>
-      <c r="F42" s="181"/>
-      <c r="G42" s="181"/>
-      <c r="H42" s="181"/>
-      <c r="I42" s="181"/>
-      <c r="J42" s="181"/>
-      <c r="K42" s="181"/>
-      <c r="L42" s="181"/>
-      <c r="M42" s="181"/>
-      <c r="N42" s="181"/>
-      <c r="O42" s="181"/>
-      <c r="P42" s="181"/>
-      <c r="Q42" s="181"/>
+      <c r="B42" s="120"/>
+      <c r="C42" s="120"/>
+      <c r="D42" s="120"/>
+      <c r="E42" s="120"/>
+      <c r="F42" s="120"/>
+      <c r="G42" s="120"/>
+      <c r="H42" s="120"/>
+      <c r="I42" s="120"/>
+      <c r="J42" s="120"/>
+      <c r="K42" s="120"/>
+      <c r="L42" s="120"/>
+      <c r="M42" s="120"/>
+      <c r="N42" s="120"/>
+      <c r="O42" s="120"/>
+      <c r="P42" s="120"/>
+      <c r="Q42" s="120"/>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="188" t="s">
+      <c r="A43" s="194" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="189"/>
-      <c r="C43" s="189"/>
-      <c r="D43" s="189"/>
-      <c r="E43" s="189"/>
-      <c r="F43" s="189"/>
-      <c r="G43" s="189"/>
-      <c r="H43" s="189"/>
-      <c r="I43" s="189"/>
-      <c r="J43" s="189"/>
-      <c r="K43" s="189"/>
-      <c r="L43" s="189"/>
-      <c r="M43" s="189"/>
-      <c r="N43" s="189"/>
-      <c r="O43" s="189"/>
-      <c r="P43" s="189"/>
-      <c r="Q43" s="189"/>
-    </row>
-    <row r="44" spans="1:17" ht="17.25">
+      <c r="B43" s="193"/>
+      <c r="C43" s="193"/>
+      <c r="D43" s="193"/>
+      <c r="E43" s="193"/>
+      <c r="F43" s="193"/>
+      <c r="G43" s="193"/>
+      <c r="H43" s="193"/>
+      <c r="I43" s="193"/>
+      <c r="J43" s="193"/>
+      <c r="K43" s="193"/>
+      <c r="L43" s="193"/>
+      <c r="M43" s="193"/>
+      <c r="N43" s="193"/>
+      <c r="O43" s="193"/>
+      <c r="P43" s="193"/>
+      <c r="Q43" s="193"/>
+    </row>
+    <row r="44" spans="1:17" ht="18">
       <c r="A44" s="45"/>
       <c r="B44" s="45"/>
       <c r="C44" s="45"/>
@@ -4821,7 +4845,7 @@
       <c r="P44" s="45"/>
       <c r="Q44" s="45"/>
     </row>
-    <row r="45" spans="1:17" ht="17.25">
+    <row r="45" spans="1:17" ht="18">
       <c r="A45" s="45"/>
       <c r="B45" s="45"/>
       <c r="C45" s="45"/>
@@ -4842,14 +4866,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:N2"/>
     <mergeCell ref="A43:Q43"/>
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="F7:I7"/>
@@ -4862,6 +4878,14 @@
     <mergeCell ref="F38:M38"/>
     <mergeCell ref="F39:M39"/>
     <mergeCell ref="A42:Q42"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:N2"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4876,22 +4900,22 @@
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="0.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24.75">
+    <row r="1" spans="1:6" ht="26">
       <c r="A1" s="7"/>
-      <c r="B1" s="180" t="s">
+      <c r="B1" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-    </row>
-    <row r="2" spans="1:6" ht="17.25">
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+    </row>
+    <row r="2" spans="1:6" ht="18">
       <c r="A2" s="7"/>
       <c r="B2" s="8" t="s">
         <v>32</v>
@@ -4903,7 +4927,7 @@
       <c r="E2" s="208"/>
       <c r="F2" s="208"/>
     </row>
-    <row r="3" spans="1:6" ht="17.25">
+    <row r="3" spans="1:6" ht="18">
       <c r="A3" s="7"/>
       <c r="B3" s="10" t="s">
         <v>34</v>
@@ -4921,7 +4945,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17.25">
+    <row r="4" spans="1:6" ht="18">
       <c r="A4" s="7"/>
       <c r="B4" s="11"/>
       <c r="C4" s="12"/>
@@ -4929,7 +4953,7 @@
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
     </row>
-    <row r="5" spans="1:6" ht="17.25">
+    <row r="5" spans="1:6" ht="18">
       <c r="A5" s="7"/>
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
@@ -4937,7 +4961,7 @@
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
     </row>
-    <row r="6" spans="1:6" ht="17.25">
+    <row r="6" spans="1:6" ht="18">
       <c r="A6" s="7"/>
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
@@ -4945,7 +4969,7 @@
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
     </row>
-    <row r="7" spans="1:6" ht="17.25">
+    <row r="7" spans="1:6" ht="18">
       <c r="A7" s="7"/>
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
@@ -4953,7 +4977,7 @@
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
     </row>
-    <row r="8" spans="1:6" ht="17.25">
+    <row r="8" spans="1:6" ht="18">
       <c r="A8" s="7"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
@@ -4961,7 +4985,7 @@
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
     </row>
-    <row r="9" spans="1:6" ht="17.25">
+    <row r="9" spans="1:6" ht="18">
       <c r="A9" s="7"/>
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
@@ -4969,7 +4993,7 @@
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:6" ht="17.25">
+    <row r="10" spans="1:6" ht="18">
       <c r="A10" s="7"/>
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
@@ -4977,7 +5001,7 @@
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
     </row>
-    <row r="11" spans="1:6" ht="17.25">
+    <row r="11" spans="1:6" ht="18">
       <c r="A11" s="7"/>
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
@@ -4985,7 +5009,7 @@
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
     </row>
-    <row r="12" spans="1:6" ht="17.25">
+    <row r="12" spans="1:6" ht="18">
       <c r="A12" s="7"/>
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
@@ -4993,7 +5017,7 @@
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
     </row>
-    <row r="13" spans="1:6" ht="17.25">
+    <row r="13" spans="1:6" ht="18">
       <c r="A13" s="7"/>
       <c r="B13" s="14"/>
       <c r="C13" s="15"/>
@@ -5001,7 +5025,7 @@
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
     </row>
-    <row r="14" spans="1:6" ht="17.25">
+    <row r="14" spans="1:6" ht="18">
       <c r="A14" s="7"/>
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
@@ -5009,7 +5033,7 @@
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
     </row>
-    <row r="15" spans="1:6" ht="17.25">
+    <row r="15" spans="1:6" ht="18">
       <c r="A15" s="7"/>
       <c r="B15" s="11"/>
       <c r="C15" s="15"/>
@@ -5017,7 +5041,7 @@
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
     </row>
-    <row r="16" spans="1:6" ht="17.25">
+    <row r="16" spans="1:6" ht="18">
       <c r="A16" s="7"/>
       <c r="B16" s="11"/>
       <c r="C16" s="15"/>
@@ -5025,7 +5049,7 @@
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
     </row>
-    <row r="17" spans="1:6" ht="17.25">
+    <row r="17" spans="1:6" ht="18">
       <c r="A17" s="7"/>
       <c r="B17" s="11"/>
       <c r="C17" s="15"/>
@@ -5033,7 +5057,7 @@
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
     </row>
-    <row r="18" spans="1:6" ht="17.25">
+    <row r="18" spans="1:6" ht="18">
       <c r="A18" s="7"/>
       <c r="B18" s="11"/>
       <c r="C18" s="15"/>
@@ -5041,7 +5065,7 @@
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
     </row>
-    <row r="19" spans="1:6" ht="17.25">
+    <row r="19" spans="1:6" ht="18">
       <c r="A19" s="7"/>
       <c r="B19" s="16"/>
       <c r="C19" s="17"/>
@@ -5049,12 +5073,12 @@
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6" ht="17.25">
+    <row r="20" spans="1:6" ht="18">
       <c r="A20" s="209" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="181"/>
-      <c r="C20" s="181"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="120"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -5079,29 +5103,29 @@
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="7.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="7.75" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.75" style="1" customWidth="1"/>
-    <col min="15" max="15" width="6.375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="7.75" style="1" customWidth="1"/>
-    <col min="17" max="17" width="6.375" style="1" customWidth="1"/>
-    <col min="18" max="19" width="7.75" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="10.25" style="1"/>
+    <col min="1" max="1" width="15.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="7.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="6.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="7.6640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="6.33203125" style="1" customWidth="1"/>
+    <col min="18" max="19" width="7.6640625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="10.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="24.75">
+    <row r="1" spans="1:19" ht="26">
       <c r="A1" s="116"/>
       <c r="B1" s="112"/>
       <c r="C1" s="112"/>
@@ -5290,7 +5314,7 @@
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
     </row>
-    <row r="10" spans="1:19" ht="15.75">
+    <row r="10" spans="1:19" ht="16">
       <c r="A10" s="4"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
